--- a/assets/templates/import-titles-admin-template.xlsx
+++ b/assets/templates/import-titles-admin-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\blockframes\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33335D1F-EDC7-46C9-B730-31B32E37BDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5E08F9-E39F-4E09-A4DD-59FB70B32144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="5220" windowWidth="33300" windowHeight="22455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="10200" windowWidth="16350" windowHeight="18675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Film metadata" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Director(s)
 </t>
@@ -90,6 +91,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>First</t>
     </r>
@@ -99,6 +101,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Name</t>
     </r>
@@ -110,6 +113,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Director(s)
 </t>
@@ -119,6 +123,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Surname</t>
     </r>
@@ -130,6 +135,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Director(s)
  </t>
@@ -139,6 +145,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Description</t>
     </r>
@@ -154,6 +161,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Stakeholders
 </t>
@@ -163,6 +171,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Name</t>
     </r>
@@ -174,6 +183,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Stakeholders
  </t>
@@ -183,6 +193,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Role
 </t>
@@ -193,6 +204,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -204,6 +216,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Stakeholders
 </t>
@@ -213,6 +226,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Country
 </t>
@@ -223,6 +237,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -268,6 +283,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Principal Cast
 </t>
@@ -277,6 +293,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>First name</t>
     </r>
@@ -288,6 +305,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Principal Cast
 </t>
@@ -297,6 +315,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Surname</t>
     </r>
@@ -318,6 +337,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Festival Prizes 
 </t>
@@ -327,6 +347,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Year</t>
     </r>
@@ -338,6 +359,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Festival Prizes 
 </t>
@@ -347,6 +369,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Selection/Prize</t>
     </r>
@@ -378,6 +401,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Producer(s)
 </t>
@@ -387,6 +411,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>First Name</t>
     </r>
@@ -398,6 +423,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Producer(s)
 </t>
@@ -407,6 +433,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Last Name</t>
     </r>
@@ -423,6 +450,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Crew Member(s)
 </t>
@@ -432,6 +460,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>First Name</t>
     </r>
@@ -443,6 +472,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Crew Member(s)
 </t>
@@ -452,6 +482,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Last Name</t>
     </r>
@@ -463,6 +494,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Crew Member(s)
 </t>
@@ -472,6 +504,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Role
 </t>
@@ -482,6 +515,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -497,6 +531,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Box-office 
 </t>
@@ -506,6 +541,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Country
 </t>
@@ -516,6 +552,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -527,6 +564,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Box-office 
 </t>
@@ -536,6 +574,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Metric
 (list of choices)</t>
@@ -548,6 +587,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Box-office 
 </t>
@@ -557,6 +597,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Number</t>
     </r>
@@ -572,6 +613,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ratings
 </t>
@@ -581,6 +623,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Country</t>
     </r>
@@ -590,6 +633,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -598,6 +642,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -609,6 +654,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ratings
   </t>
@@ -618,6 +664,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Value</t>
     </r>
@@ -636,6 +683,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Films Reviews
 </t>
@@ -645,6 +693,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Critic name</t>
     </r>
@@ -656,6 +705,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Films Reviews 
 </t>
@@ -665,6 +715,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Revue or journal</t>
     </r>
@@ -676,6 +727,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Films Reviews 
 </t>
@@ -685,6 +737,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> link</t>
     </r>
@@ -696,6 +749,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Films Reviews
 </t>
@@ -705,6 +759,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>quote</t>
     </r>
@@ -736,6 +791,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Available version(s)
 </t>
@@ -745,6 +801,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Language
 </t>
@@ -755,6 +812,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -766,6 +824,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Available version(s)
 </t>
@@ -775,6 +834,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Dubbed
 </t>
@@ -785,6 +845,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -796,6 +857,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Available version(s)
 </t>
@@ -805,6 +867,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Subtitled
 </t>
@@ -815,6 +878,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -826,6 +890,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Available version(s)
 </t>
@@ -835,6 +900,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Captioned
 </t>
@@ -845,6 +911,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(list of choices)</t>
     </r>
@@ -1183,9 +1250,6 @@
     <t>Good Health and Well-being</t>
   </si>
   <si>
-    <t>S-VOD</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -2819,6 +2883,9 @@
   </si>
   <si>
     <t>Zulu</t>
+  </si>
+  <si>
+    <t>SVOD</t>
   </si>
 </sst>
 </file>
@@ -2839,16 +2906,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2856,82 +2926,97 @@
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3464,39 +3549,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3508,15 +3569,39 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3890,14 +3975,14 @@
       <c r="BP4" s="4"/>
     </row>
     <row r="5" spans="1:76" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -3919,14 +4004,14 @@
       <c r="BP5" s="4"/>
     </row>
     <row r="6" spans="1:76" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4550,15 +4635,15 @@
       </c>
     </row>
     <row r="15" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="86"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="78"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
@@ -4572,8 +4657,8 @@
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
       <c r="V15" s="39"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="86"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="78"/>
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
       <c r="AA15" s="39"/>
@@ -4581,9 +4666,9 @@
       <c r="AC15" s="40"/>
       <c r="AD15" s="39"/>
       <c r="AE15" s="39"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
       <c r="AI15" s="39"/>
       <c r="AJ15" s="39"/>
       <c r="AK15" s="39"/>
@@ -4591,7 +4676,7 @@
       <c r="AM15" s="39"/>
       <c r="AN15" s="39"/>
       <c r="AO15" s="39"/>
-      <c r="AP15" s="86"/>
+      <c r="AP15" s="78"/>
       <c r="AQ15" s="39"/>
       <c r="AR15" s="39"/>
       <c r="AS15" s="39"/>
@@ -4604,21 +4689,21 @@
       <c r="AZ15" s="39"/>
       <c r="BA15" s="39"/>
       <c r="BB15" s="39"/>
-      <c r="BC15" s="86"/>
-      <c r="BD15" s="86"/>
-      <c r="BE15" s="86"/>
-      <c r="BF15" s="86"/>
-      <c r="BG15" s="86"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="78"/>
+      <c r="BE15" s="78"/>
+      <c r="BF15" s="78"/>
+      <c r="BG15" s="78"/>
       <c r="BH15" s="39"/>
       <c r="BI15" s="39"/>
       <c r="BJ15" s="39"/>
       <c r="BK15" s="39"/>
-      <c r="BL15" s="86"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="91"/>
-      <c r="BP15" s="91"/>
-      <c r="BQ15" s="92"/>
+      <c r="BL15" s="78"/>
+      <c r="BM15" s="76"/>
+      <c r="BN15" s="76"/>
+      <c r="BO15" s="76"/>
+      <c r="BP15" s="76"/>
+      <c r="BQ15" s="77"/>
       <c r="BR15" s="41"/>
       <c r="BS15" s="41"/>
       <c r="BT15" s="41"/>
@@ -5330,15 +5415,15 @@
       <c r="BX24" s="15"/>
     </row>
     <row r="25" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="78"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
       <c r="L25" s="45"/>
@@ -5352,8 +5437,8 @@
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
       <c r="V25" s="45"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="78"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="73"/>
       <c r="Y25" s="45"/>
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
@@ -5361,9 +5446,9 @@
       <c r="AC25" s="46"/>
       <c r="AD25" s="45"/>
       <c r="AE25" s="45"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
       <c r="AI25" s="45"/>
       <c r="AJ25" s="45"/>
       <c r="AK25" s="45"/>
@@ -5371,7 +5456,7 @@
       <c r="AM25" s="45"/>
       <c r="AN25" s="45"/>
       <c r="AO25" s="45"/>
-      <c r="AP25" s="78"/>
+      <c r="AP25" s="73"/>
       <c r="AQ25" s="45"/>
       <c r="AR25" s="45"/>
       <c r="AS25" s="45"/>
@@ -5384,21 +5469,21 @@
       <c r="AZ25" s="45"/>
       <c r="BA25" s="45"/>
       <c r="BB25" s="45"/>
-      <c r="BC25" s="78"/>
-      <c r="BD25" s="78"/>
-      <c r="BE25" s="78"/>
-      <c r="BF25" s="78"/>
-      <c r="BG25" s="78"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
       <c r="BH25" s="45"/>
       <c r="BI25" s="45"/>
       <c r="BJ25" s="45"/>
       <c r="BK25" s="45"/>
-      <c r="BL25" s="78"/>
-      <c r="BM25" s="79"/>
-      <c r="BN25" s="79"/>
-      <c r="BO25" s="79"/>
-      <c r="BP25" s="79"/>
-      <c r="BQ25" s="80"/>
+      <c r="BL25" s="73"/>
+      <c r="BM25" s="83"/>
+      <c r="BN25" s="83"/>
+      <c r="BO25" s="83"/>
+      <c r="BP25" s="83"/>
+      <c r="BQ25" s="88"/>
       <c r="BR25" s="48"/>
       <c r="BS25" s="49"/>
       <c r="BT25" s="49"/>
@@ -6110,15 +6195,15 @@
       <c r="BX34" s="53"/>
     </row>
     <row r="35" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="77"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="43"/>
@@ -6132,8 +6217,8 @@
       <c r="T35" s="43"/>
       <c r="U35" s="43"/>
       <c r="V35" s="43"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="77"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="91"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
       <c r="AA35" s="43"/>
@@ -6141,9 +6226,9 @@
       <c r="AC35" s="54"/>
       <c r="AD35" s="43"/>
       <c r="AE35" s="43"/>
-      <c r="AF35" s="77"/>
-      <c r="AG35" s="77"/>
-      <c r="AH35" s="77"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="91"/>
       <c r="AI35" s="43"/>
       <c r="AJ35" s="43"/>
       <c r="AK35" s="43"/>
@@ -6151,7 +6236,7 @@
       <c r="AM35" s="43"/>
       <c r="AN35" s="43"/>
       <c r="AO35" s="43"/>
-      <c r="AP35" s="77"/>
+      <c r="AP35" s="91"/>
       <c r="AQ35" s="43"/>
       <c r="AR35" s="43"/>
       <c r="AS35" s="43"/>
@@ -6164,21 +6249,21 @@
       <c r="AZ35" s="43"/>
       <c r="BA35" s="43"/>
       <c r="BB35" s="43"/>
-      <c r="BC35" s="77"/>
-      <c r="BD35" s="77"/>
-      <c r="BE35" s="77"/>
-      <c r="BF35" s="77"/>
-      <c r="BG35" s="77"/>
+      <c r="BC35" s="91"/>
+      <c r="BD35" s="91"/>
+      <c r="BE35" s="91"/>
+      <c r="BF35" s="91"/>
+      <c r="BG35" s="91"/>
       <c r="BH35" s="43"/>
       <c r="BI35" s="43"/>
       <c r="BJ35" s="43"/>
       <c r="BK35" s="43"/>
-      <c r="BL35" s="77"/>
-      <c r="BM35" s="73"/>
-      <c r="BN35" s="73"/>
-      <c r="BO35" s="73"/>
-      <c r="BP35" s="73"/>
-      <c r="BQ35" s="85"/>
+      <c r="BL35" s="91"/>
+      <c r="BM35" s="89"/>
+      <c r="BN35" s="89"/>
+      <c r="BO35" s="89"/>
+      <c r="BP35" s="89"/>
+      <c r="BQ35" s="90"/>
       <c r="BR35" s="41"/>
       <c r="BS35" s="41"/>
       <c r="BT35" s="41"/>
@@ -6890,15 +6975,15 @@
       <c r="BX44" s="15"/>
     </row>
     <row r="45" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="78"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="73"/>
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
       <c r="L45" s="45"/>
@@ -6912,8 +6997,8 @@
       <c r="T45" s="45"/>
       <c r="U45" s="45"/>
       <c r="V45" s="45"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="78"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="73"/>
       <c r="Y45" s="45"/>
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
@@ -6921,9 +7006,9 @@
       <c r="AC45" s="46"/>
       <c r="AD45" s="45"/>
       <c r="AE45" s="45"/>
-      <c r="AF45" s="78"/>
-      <c r="AG45" s="78"/>
-      <c r="AH45" s="78"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
       <c r="AI45" s="45"/>
       <c r="AJ45" s="45"/>
       <c r="AK45" s="45"/>
@@ -6931,7 +7016,7 @@
       <c r="AM45" s="45"/>
       <c r="AN45" s="45"/>
       <c r="AO45" s="45"/>
-      <c r="AP45" s="78"/>
+      <c r="AP45" s="73"/>
       <c r="AQ45" s="45"/>
       <c r="AR45" s="45"/>
       <c r="AS45" s="45"/>
@@ -6944,21 +7029,21 @@
       <c r="AZ45" s="45"/>
       <c r="BA45" s="45"/>
       <c r="BB45" s="45"/>
-      <c r="BC45" s="78"/>
-      <c r="BD45" s="78"/>
-      <c r="BE45" s="78"/>
-      <c r="BF45" s="78"/>
-      <c r="BG45" s="78"/>
+      <c r="BC45" s="73"/>
+      <c r="BD45" s="73"/>
+      <c r="BE45" s="73"/>
+      <c r="BF45" s="73"/>
+      <c r="BG45" s="73"/>
       <c r="BH45" s="45"/>
       <c r="BI45" s="45"/>
       <c r="BJ45" s="45"/>
       <c r="BK45" s="45"/>
-      <c r="BL45" s="78"/>
-      <c r="BM45" s="79"/>
-      <c r="BN45" s="79"/>
-      <c r="BO45" s="79"/>
-      <c r="BP45" s="79"/>
-      <c r="BQ45" s="80"/>
+      <c r="BL45" s="73"/>
+      <c r="BM45" s="83"/>
+      <c r="BN45" s="83"/>
+      <c r="BO45" s="83"/>
+      <c r="BP45" s="83"/>
+      <c r="BQ45" s="88"/>
       <c r="BR45" s="48"/>
       <c r="BS45" s="49"/>
       <c r="BT45" s="49"/>
@@ -7670,15 +7755,15 @@
       <c r="BX54" s="53"/>
     </row>
     <row r="55" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="77"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="91"/>
       <c r="J55" s="43"/>
       <c r="K55" s="43"/>
       <c r="L55" s="43"/>
@@ -7692,8 +7777,8 @@
       <c r="T55" s="43"/>
       <c r="U55" s="43"/>
       <c r="V55" s="43"/>
-      <c r="W55" s="81"/>
-      <c r="X55" s="77"/>
+      <c r="W55" s="93"/>
+      <c r="X55" s="91"/>
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
       <c r="AA55" s="43"/>
@@ -7701,9 +7786,9 @@
       <c r="AC55" s="54"/>
       <c r="AD55" s="43"/>
       <c r="AE55" s="43"/>
-      <c r="AF55" s="77"/>
-      <c r="AG55" s="77"/>
-      <c r="AH55" s="77"/>
+      <c r="AF55" s="91"/>
+      <c r="AG55" s="91"/>
+      <c r="AH55" s="91"/>
       <c r="AI55" s="43"/>
       <c r="AJ55" s="43"/>
       <c r="AK55" s="43"/>
@@ -7711,7 +7796,7 @@
       <c r="AM55" s="43"/>
       <c r="AN55" s="43"/>
       <c r="AO55" s="43"/>
-      <c r="AP55" s="77"/>
+      <c r="AP55" s="91"/>
       <c r="AQ55" s="43"/>
       <c r="AR55" s="43"/>
       <c r="AS55" s="43"/>
@@ -7724,21 +7809,21 @@
       <c r="AZ55" s="43"/>
       <c r="BA55" s="43"/>
       <c r="BB55" s="43"/>
-      <c r="BC55" s="77"/>
-      <c r="BD55" s="77"/>
-      <c r="BE55" s="77"/>
-      <c r="BF55" s="77"/>
-      <c r="BG55" s="77"/>
+      <c r="BC55" s="91"/>
+      <c r="BD55" s="91"/>
+      <c r="BE55" s="91"/>
+      <c r="BF55" s="91"/>
+      <c r="BG55" s="91"/>
       <c r="BH55" s="43"/>
       <c r="BI55" s="43"/>
       <c r="BJ55" s="43"/>
       <c r="BK55" s="43"/>
-      <c r="BL55" s="77"/>
-      <c r="BM55" s="73"/>
-      <c r="BN55" s="73"/>
-      <c r="BO55" s="73"/>
-      <c r="BP55" s="73"/>
-      <c r="BQ55" s="85"/>
+      <c r="BL55" s="91"/>
+      <c r="BM55" s="89"/>
+      <c r="BN55" s="89"/>
+      <c r="BO55" s="89"/>
+      <c r="BP55" s="89"/>
+      <c r="BQ55" s="90"/>
       <c r="BR55" s="41"/>
       <c r="BS55" s="41"/>
       <c r="BT55" s="41"/>
@@ -8450,15 +8535,15 @@
       <c r="BX64" s="15"/>
     </row>
     <row r="65" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="78"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="45"/>
       <c r="K65" s="45"/>
       <c r="L65" s="45"/>
@@ -8472,8 +8557,8 @@
       <c r="T65" s="45"/>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
-      <c r="W65" s="84"/>
-      <c r="X65" s="78"/>
+      <c r="W65" s="87"/>
+      <c r="X65" s="73"/>
       <c r="Y65" s="45"/>
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
@@ -8481,9 +8566,9 @@
       <c r="AC65" s="46"/>
       <c r="AD65" s="45"/>
       <c r="AE65" s="45"/>
-      <c r="AF65" s="78"/>
-      <c r="AG65" s="78"/>
-      <c r="AH65" s="78"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
       <c r="AI65" s="45"/>
       <c r="AJ65" s="45"/>
       <c r="AK65" s="45"/>
@@ -8491,7 +8576,7 @@
       <c r="AM65" s="45"/>
       <c r="AN65" s="45"/>
       <c r="AO65" s="45"/>
-      <c r="AP65" s="78"/>
+      <c r="AP65" s="73"/>
       <c r="AQ65" s="45"/>
       <c r="AR65" s="45"/>
       <c r="AS65" s="45"/>
@@ -8504,21 +8589,21 @@
       <c r="AZ65" s="45"/>
       <c r="BA65" s="45"/>
       <c r="BB65" s="45"/>
-      <c r="BC65" s="78"/>
-      <c r="BD65" s="78"/>
-      <c r="BE65" s="78"/>
-      <c r="BF65" s="78"/>
-      <c r="BG65" s="78"/>
+      <c r="BC65" s="73"/>
+      <c r="BD65" s="73"/>
+      <c r="BE65" s="73"/>
+      <c r="BF65" s="73"/>
+      <c r="BG65" s="73"/>
       <c r="BH65" s="45"/>
       <c r="BI65" s="45"/>
       <c r="BJ65" s="45"/>
       <c r="BK65" s="45"/>
-      <c r="BL65" s="78"/>
-      <c r="BM65" s="79"/>
-      <c r="BN65" s="79"/>
-      <c r="BO65" s="79"/>
-      <c r="BP65" s="79"/>
-      <c r="BQ65" s="80"/>
+      <c r="BL65" s="73"/>
+      <c r="BM65" s="83"/>
+      <c r="BN65" s="83"/>
+      <c r="BO65" s="83"/>
+      <c r="BP65" s="83"/>
+      <c r="BQ65" s="88"/>
       <c r="BR65" s="48"/>
       <c r="BS65" s="49"/>
       <c r="BT65" s="49"/>
@@ -9230,15 +9315,15 @@
       <c r="BX74" s="53"/>
     </row>
     <row r="75" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="77"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="77"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="91"/>
       <c r="J75" s="43"/>
       <c r="K75" s="43"/>
       <c r="L75" s="43"/>
@@ -9252,8 +9337,8 @@
       <c r="T75" s="43"/>
       <c r="U75" s="43"/>
       <c r="V75" s="43"/>
-      <c r="W75" s="81"/>
-      <c r="X75" s="77"/>
+      <c r="W75" s="93"/>
+      <c r="X75" s="91"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
       <c r="AA75" s="43"/>
@@ -9261,9 +9346,9 @@
       <c r="AC75" s="54"/>
       <c r="AD75" s="43"/>
       <c r="AE75" s="43"/>
-      <c r="AF75" s="77"/>
-      <c r="AG75" s="77"/>
-      <c r="AH75" s="77"/>
+      <c r="AF75" s="91"/>
+      <c r="AG75" s="91"/>
+      <c r="AH75" s="91"/>
       <c r="AI75" s="43"/>
       <c r="AJ75" s="43"/>
       <c r="AK75" s="43"/>
@@ -9271,7 +9356,7 @@
       <c r="AM75" s="43"/>
       <c r="AN75" s="43"/>
       <c r="AO75" s="43"/>
-      <c r="AP75" s="77"/>
+      <c r="AP75" s="91"/>
       <c r="AQ75" s="43"/>
       <c r="AR75" s="43"/>
       <c r="AS75" s="43"/>
@@ -9284,21 +9369,21 @@
       <c r="AZ75" s="43"/>
       <c r="BA75" s="43"/>
       <c r="BB75" s="43"/>
-      <c r="BC75" s="77"/>
-      <c r="BD75" s="77"/>
-      <c r="BE75" s="77"/>
-      <c r="BF75" s="77"/>
-      <c r="BG75" s="77"/>
+      <c r="BC75" s="91"/>
+      <c r="BD75" s="91"/>
+      <c r="BE75" s="91"/>
+      <c r="BF75" s="91"/>
+      <c r="BG75" s="91"/>
       <c r="BH75" s="43"/>
       <c r="BI75" s="43"/>
       <c r="BJ75" s="43"/>
       <c r="BK75" s="43"/>
-      <c r="BL75" s="77"/>
-      <c r="BM75" s="73"/>
-      <c r="BN75" s="73"/>
-      <c r="BO75" s="73"/>
-      <c r="BP75" s="73"/>
-      <c r="BQ75" s="85"/>
+      <c r="BL75" s="91"/>
+      <c r="BM75" s="89"/>
+      <c r="BN75" s="89"/>
+      <c r="BO75" s="89"/>
+      <c r="BP75" s="89"/>
+      <c r="BQ75" s="90"/>
       <c r="BR75" s="41"/>
       <c r="BS75" s="41"/>
       <c r="BT75" s="41"/>
@@ -10010,15 +10095,15 @@
       <c r="BX84" s="15"/>
     </row>
     <row r="85" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="78"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="73"/>
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
       <c r="L85" s="45"/>
@@ -10032,8 +10117,8 @@
       <c r="T85" s="45"/>
       <c r="U85" s="45"/>
       <c r="V85" s="45"/>
-      <c r="W85" s="84"/>
-      <c r="X85" s="78"/>
+      <c r="W85" s="87"/>
+      <c r="X85" s="73"/>
       <c r="Y85" s="45"/>
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
@@ -10041,9 +10126,9 @@
       <c r="AC85" s="46"/>
       <c r="AD85" s="45"/>
       <c r="AE85" s="45"/>
-      <c r="AF85" s="78"/>
-      <c r="AG85" s="78"/>
-      <c r="AH85" s="78"/>
+      <c r="AF85" s="73"/>
+      <c r="AG85" s="73"/>
+      <c r="AH85" s="73"/>
       <c r="AI85" s="45"/>
       <c r="AJ85" s="45"/>
       <c r="AK85" s="45"/>
@@ -10051,7 +10136,7 @@
       <c r="AM85" s="45"/>
       <c r="AN85" s="45"/>
       <c r="AO85" s="45"/>
-      <c r="AP85" s="78"/>
+      <c r="AP85" s="73"/>
       <c r="AQ85" s="45"/>
       <c r="AR85" s="45"/>
       <c r="AS85" s="45"/>
@@ -10064,21 +10149,21 @@
       <c r="AZ85" s="45"/>
       <c r="BA85" s="45"/>
       <c r="BB85" s="45"/>
-      <c r="BC85" s="78"/>
-      <c r="BD85" s="78"/>
-      <c r="BE85" s="78"/>
-      <c r="BF85" s="78"/>
-      <c r="BG85" s="78"/>
+      <c r="BC85" s="73"/>
+      <c r="BD85" s="73"/>
+      <c r="BE85" s="73"/>
+      <c r="BF85" s="73"/>
+      <c r="BG85" s="73"/>
       <c r="BH85" s="45"/>
       <c r="BI85" s="45"/>
       <c r="BJ85" s="45"/>
       <c r="BK85" s="45"/>
-      <c r="BL85" s="78"/>
-      <c r="BM85" s="79"/>
-      <c r="BN85" s="79"/>
-      <c r="BO85" s="79"/>
-      <c r="BP85" s="79"/>
-      <c r="BQ85" s="80"/>
+      <c r="BL85" s="73"/>
+      <c r="BM85" s="83"/>
+      <c r="BN85" s="83"/>
+      <c r="BO85" s="83"/>
+      <c r="BP85" s="83"/>
+      <c r="BQ85" s="88"/>
       <c r="BR85" s="48"/>
       <c r="BS85" s="49"/>
       <c r="BT85" s="49"/>
@@ -10790,15 +10875,15 @@
       <c r="BX94" s="53"/>
     </row>
     <row r="95" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="77"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="77"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="91"/>
       <c r="J95" s="43"/>
       <c r="K95" s="43"/>
       <c r="L95" s="43"/>
@@ -10812,8 +10897,8 @@
       <c r="T95" s="43"/>
       <c r="U95" s="43"/>
       <c r="V95" s="43"/>
-      <c r="W95" s="81"/>
-      <c r="X95" s="77"/>
+      <c r="W95" s="93"/>
+      <c r="X95" s="91"/>
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
       <c r="AA95" s="43"/>
@@ -10821,9 +10906,9 @@
       <c r="AC95" s="54"/>
       <c r="AD95" s="43"/>
       <c r="AE95" s="43"/>
-      <c r="AF95" s="77"/>
-      <c r="AG95" s="77"/>
-      <c r="AH95" s="77"/>
+      <c r="AF95" s="91"/>
+      <c r="AG95" s="91"/>
+      <c r="AH95" s="91"/>
       <c r="AI95" s="43"/>
       <c r="AJ95" s="43"/>
       <c r="AK95" s="43"/>
@@ -10831,7 +10916,7 @@
       <c r="AM95" s="43"/>
       <c r="AN95" s="43"/>
       <c r="AO95" s="43"/>
-      <c r="AP95" s="77"/>
+      <c r="AP95" s="91"/>
       <c r="AQ95" s="43"/>
       <c r="AR95" s="43"/>
       <c r="AS95" s="43"/>
@@ -10844,21 +10929,21 @@
       <c r="AZ95" s="43"/>
       <c r="BA95" s="43"/>
       <c r="BB95" s="43"/>
-      <c r="BC95" s="77"/>
-      <c r="BD95" s="77"/>
-      <c r="BE95" s="77"/>
-      <c r="BF95" s="77"/>
-      <c r="BG95" s="77"/>
+      <c r="BC95" s="91"/>
+      <c r="BD95" s="91"/>
+      <c r="BE95" s="91"/>
+      <c r="BF95" s="91"/>
+      <c r="BG95" s="91"/>
       <c r="BH95" s="43"/>
       <c r="BI95" s="43"/>
       <c r="BJ95" s="43"/>
       <c r="BK95" s="43"/>
-      <c r="BL95" s="77"/>
-      <c r="BM95" s="73"/>
-      <c r="BN95" s="73"/>
-      <c r="BO95" s="73"/>
-      <c r="BP95" s="73"/>
-      <c r="BQ95" s="76"/>
+      <c r="BL95" s="91"/>
+      <c r="BM95" s="89"/>
+      <c r="BN95" s="89"/>
+      <c r="BO95" s="89"/>
+      <c r="BP95" s="89"/>
+      <c r="BQ95" s="94"/>
       <c r="BR95" s="41"/>
       <c r="BS95" s="41"/>
       <c r="BT95" s="41"/>
@@ -16947,26 +17032,197 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="AH25:AH34"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="G25:G34"/>
-    <mergeCell ref="BO15:BO24"/>
-    <mergeCell ref="BP15:BP24"/>
-    <mergeCell ref="BQ15:BQ24"/>
-    <mergeCell ref="AG15:AG24"/>
-    <mergeCell ref="AH15:AH24"/>
-    <mergeCell ref="AP15:AP24"/>
-    <mergeCell ref="BC15:BC24"/>
-    <mergeCell ref="BD15:BD24"/>
-    <mergeCell ref="BE15:BE24"/>
-    <mergeCell ref="BF15:BF24"/>
-    <mergeCell ref="BG15:BG24"/>
-    <mergeCell ref="BL15:BL24"/>
+    <mergeCell ref="BE95:BE104"/>
+    <mergeCell ref="BF95:BF104"/>
+    <mergeCell ref="BG95:BG104"/>
+    <mergeCell ref="BL95:BL104"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E85:E94"/>
+    <mergeCell ref="F85:F94"/>
+    <mergeCell ref="G85:G94"/>
+    <mergeCell ref="BM95:BM104"/>
+    <mergeCell ref="BN95:BN104"/>
+    <mergeCell ref="BM85:BM94"/>
+    <mergeCell ref="BN85:BN94"/>
+    <mergeCell ref="W95:W104"/>
+    <mergeCell ref="X95:X104"/>
+    <mergeCell ref="AF95:AF104"/>
+    <mergeCell ref="AG95:AG104"/>
+    <mergeCell ref="AH95:AH104"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="B95:B104"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="D95:D104"/>
+    <mergeCell ref="E95:E104"/>
+    <mergeCell ref="F95:F104"/>
+    <mergeCell ref="G95:G104"/>
+    <mergeCell ref="H95:H104"/>
+    <mergeCell ref="H85:H94"/>
+    <mergeCell ref="I85:I94"/>
+    <mergeCell ref="W85:W94"/>
+    <mergeCell ref="X85:X94"/>
+    <mergeCell ref="AF85:AF94"/>
+    <mergeCell ref="AG85:AG94"/>
+    <mergeCell ref="AH85:AH94"/>
+    <mergeCell ref="BO85:BO94"/>
+    <mergeCell ref="BP85:BP94"/>
+    <mergeCell ref="AP85:AP94"/>
+    <mergeCell ref="BC85:BC94"/>
+    <mergeCell ref="BD85:BD94"/>
+    <mergeCell ref="BE85:BE94"/>
+    <mergeCell ref="BF85:BF94"/>
+    <mergeCell ref="BG85:BG94"/>
+    <mergeCell ref="BL85:BL94"/>
+    <mergeCell ref="I95:I104"/>
+    <mergeCell ref="BO75:BO84"/>
+    <mergeCell ref="BP75:BP84"/>
+    <mergeCell ref="BQ75:BQ84"/>
+    <mergeCell ref="AP75:AP84"/>
+    <mergeCell ref="BC75:BC84"/>
+    <mergeCell ref="BD75:BD84"/>
+    <mergeCell ref="BE75:BE84"/>
+    <mergeCell ref="BF75:BF84"/>
+    <mergeCell ref="BG75:BG84"/>
+    <mergeCell ref="BL75:BL84"/>
+    <mergeCell ref="I75:I84"/>
+    <mergeCell ref="W75:W84"/>
+    <mergeCell ref="X75:X84"/>
+    <mergeCell ref="AF75:AF84"/>
+    <mergeCell ref="AG75:AG84"/>
+    <mergeCell ref="AH75:AH84"/>
+    <mergeCell ref="BQ85:BQ94"/>
+    <mergeCell ref="BO95:BO104"/>
+    <mergeCell ref="BP95:BP104"/>
+    <mergeCell ref="BQ95:BQ104"/>
+    <mergeCell ref="AP95:AP104"/>
+    <mergeCell ref="BC95:BC104"/>
+    <mergeCell ref="BD95:BD104"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="E65:E74"/>
+    <mergeCell ref="F65:F74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="BM75:BM84"/>
+    <mergeCell ref="BN75:BN84"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="E75:E84"/>
+    <mergeCell ref="F75:F84"/>
+    <mergeCell ref="G75:G84"/>
+    <mergeCell ref="H65:H74"/>
+    <mergeCell ref="I65:I74"/>
+    <mergeCell ref="W65:W74"/>
+    <mergeCell ref="X65:X74"/>
+    <mergeCell ref="AF65:AF74"/>
+    <mergeCell ref="AG65:AG74"/>
+    <mergeCell ref="AH65:AH74"/>
+    <mergeCell ref="H75:H84"/>
+    <mergeCell ref="BO65:BO74"/>
+    <mergeCell ref="BP65:BP74"/>
+    <mergeCell ref="BQ65:BQ74"/>
+    <mergeCell ref="AP65:AP74"/>
+    <mergeCell ref="BC65:BC74"/>
+    <mergeCell ref="BD65:BD74"/>
+    <mergeCell ref="BE65:BE74"/>
+    <mergeCell ref="BF65:BF74"/>
+    <mergeCell ref="BG65:BG74"/>
+    <mergeCell ref="BL65:BL74"/>
+    <mergeCell ref="BM65:BM74"/>
+    <mergeCell ref="BN65:BN74"/>
+    <mergeCell ref="BO55:BO64"/>
+    <mergeCell ref="BP55:BP64"/>
+    <mergeCell ref="BQ55:BQ64"/>
+    <mergeCell ref="AP55:AP64"/>
+    <mergeCell ref="BC55:BC64"/>
+    <mergeCell ref="BD55:BD64"/>
+    <mergeCell ref="BE55:BE64"/>
+    <mergeCell ref="BF55:BF64"/>
+    <mergeCell ref="BG55:BG64"/>
+    <mergeCell ref="BL55:BL64"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="BM55:BM64"/>
+    <mergeCell ref="BN55:BN64"/>
+    <mergeCell ref="H55:H64"/>
+    <mergeCell ref="I55:I64"/>
+    <mergeCell ref="W55:W64"/>
+    <mergeCell ref="X55:X64"/>
+    <mergeCell ref="AF55:AF64"/>
+    <mergeCell ref="AG55:AG64"/>
+    <mergeCell ref="AH55:AH64"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="D55:D64"/>
+    <mergeCell ref="E55:E64"/>
+    <mergeCell ref="F55:F64"/>
+    <mergeCell ref="G55:G64"/>
+    <mergeCell ref="H45:H54"/>
+    <mergeCell ref="BO45:BO54"/>
+    <mergeCell ref="BP45:BP54"/>
+    <mergeCell ref="BQ45:BQ54"/>
+    <mergeCell ref="AP45:AP54"/>
+    <mergeCell ref="BC45:BC54"/>
+    <mergeCell ref="BD45:BD54"/>
+    <mergeCell ref="BE45:BE54"/>
+    <mergeCell ref="BF45:BF54"/>
+    <mergeCell ref="BG45:BG54"/>
+    <mergeCell ref="BL45:BL54"/>
+    <mergeCell ref="I45:I54"/>
+    <mergeCell ref="W45:W54"/>
+    <mergeCell ref="X45:X54"/>
+    <mergeCell ref="AF45:AF54"/>
+    <mergeCell ref="AG45:AG54"/>
+    <mergeCell ref="AH45:AH54"/>
+    <mergeCell ref="BM45:BM54"/>
+    <mergeCell ref="BN45:BN54"/>
+    <mergeCell ref="H35:H44"/>
+    <mergeCell ref="I35:I44"/>
+    <mergeCell ref="W35:W44"/>
+    <mergeCell ref="X35:X44"/>
+    <mergeCell ref="AF35:AF44"/>
+    <mergeCell ref="AG35:AG44"/>
+    <mergeCell ref="AH35:AH44"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="E35:E44"/>
+    <mergeCell ref="F35:F44"/>
+    <mergeCell ref="G35:G44"/>
+    <mergeCell ref="BM35:BM44"/>
+    <mergeCell ref="BN35:BN44"/>
+    <mergeCell ref="BO35:BO44"/>
+    <mergeCell ref="BP35:BP44"/>
+    <mergeCell ref="BQ35:BQ44"/>
+    <mergeCell ref="AP35:AP44"/>
+    <mergeCell ref="BC35:BC44"/>
+    <mergeCell ref="BD35:BD44"/>
+    <mergeCell ref="BE35:BE44"/>
+    <mergeCell ref="BF35:BF44"/>
+    <mergeCell ref="BG35:BG44"/>
+    <mergeCell ref="BL35:BL44"/>
+    <mergeCell ref="BP25:BP34"/>
+    <mergeCell ref="BQ25:BQ34"/>
+    <mergeCell ref="AP25:AP34"/>
+    <mergeCell ref="BC25:BC34"/>
+    <mergeCell ref="BD25:BD34"/>
+    <mergeCell ref="BE25:BE34"/>
+    <mergeCell ref="BF25:BF34"/>
+    <mergeCell ref="BG25:BG34"/>
+    <mergeCell ref="BL25:BL34"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A15:A24"/>
@@ -16991,204 +17247,33 @@
     <mergeCell ref="X25:X34"/>
     <mergeCell ref="AF25:AF34"/>
     <mergeCell ref="AG25:AG34"/>
+    <mergeCell ref="BP15:BP24"/>
+    <mergeCell ref="BQ15:BQ24"/>
+    <mergeCell ref="AG15:AG24"/>
+    <mergeCell ref="AH15:AH24"/>
+    <mergeCell ref="AP15:AP24"/>
+    <mergeCell ref="BC15:BC24"/>
+    <mergeCell ref="BD15:BD24"/>
+    <mergeCell ref="BE15:BE24"/>
+    <mergeCell ref="BF15:BF24"/>
+    <mergeCell ref="BG15:BG24"/>
+    <mergeCell ref="BL15:BL24"/>
+    <mergeCell ref="AH25:AH34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="G25:G34"/>
+    <mergeCell ref="BO15:BO24"/>
     <mergeCell ref="BO25:BO34"/>
-    <mergeCell ref="BP25:BP34"/>
-    <mergeCell ref="BQ25:BQ34"/>
-    <mergeCell ref="AP25:AP34"/>
-    <mergeCell ref="BC25:BC34"/>
-    <mergeCell ref="BD25:BD34"/>
-    <mergeCell ref="BE25:BE34"/>
-    <mergeCell ref="BF25:BF34"/>
-    <mergeCell ref="BG25:BG34"/>
-    <mergeCell ref="BL25:BL34"/>
-    <mergeCell ref="BO35:BO44"/>
-    <mergeCell ref="BP35:BP44"/>
-    <mergeCell ref="BQ35:BQ44"/>
-    <mergeCell ref="AP35:AP44"/>
-    <mergeCell ref="BC35:BC44"/>
-    <mergeCell ref="BD35:BD44"/>
-    <mergeCell ref="BE35:BE44"/>
-    <mergeCell ref="BF35:BF44"/>
-    <mergeCell ref="BG35:BG44"/>
-    <mergeCell ref="BL35:BL44"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="E35:E44"/>
-    <mergeCell ref="F35:F44"/>
-    <mergeCell ref="G35:G44"/>
-    <mergeCell ref="BM35:BM44"/>
-    <mergeCell ref="BN35:BN44"/>
-    <mergeCell ref="I45:I54"/>
-    <mergeCell ref="W45:W54"/>
-    <mergeCell ref="X45:X54"/>
-    <mergeCell ref="AF45:AF54"/>
-    <mergeCell ref="AG45:AG54"/>
-    <mergeCell ref="AH45:AH54"/>
-    <mergeCell ref="BM45:BM54"/>
-    <mergeCell ref="BN45:BN54"/>
-    <mergeCell ref="H35:H44"/>
-    <mergeCell ref="I35:I44"/>
-    <mergeCell ref="W35:W44"/>
-    <mergeCell ref="X35:X44"/>
-    <mergeCell ref="AF35:AF44"/>
-    <mergeCell ref="AG35:AG44"/>
-    <mergeCell ref="AH35:AH44"/>
-    <mergeCell ref="BO45:BO54"/>
-    <mergeCell ref="BP45:BP54"/>
-    <mergeCell ref="BQ45:BQ54"/>
-    <mergeCell ref="AP45:AP54"/>
-    <mergeCell ref="BC45:BC54"/>
-    <mergeCell ref="BD45:BD54"/>
-    <mergeCell ref="BE45:BE54"/>
-    <mergeCell ref="BF45:BF54"/>
-    <mergeCell ref="BG45:BG54"/>
-    <mergeCell ref="BL45:BL54"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="BM55:BM64"/>
-    <mergeCell ref="BN55:BN64"/>
-    <mergeCell ref="H55:H64"/>
-    <mergeCell ref="I55:I64"/>
-    <mergeCell ref="W55:W64"/>
-    <mergeCell ref="X55:X64"/>
-    <mergeCell ref="AF55:AF64"/>
-    <mergeCell ref="AG55:AG64"/>
-    <mergeCell ref="AH55:AH64"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="D55:D64"/>
-    <mergeCell ref="E55:E64"/>
-    <mergeCell ref="F55:F64"/>
-    <mergeCell ref="G55:G64"/>
-    <mergeCell ref="H45:H54"/>
-    <mergeCell ref="BO55:BO64"/>
-    <mergeCell ref="BP55:BP64"/>
-    <mergeCell ref="BQ55:BQ64"/>
-    <mergeCell ref="AP55:AP64"/>
-    <mergeCell ref="BC55:BC64"/>
-    <mergeCell ref="BD55:BD64"/>
-    <mergeCell ref="BE55:BE64"/>
-    <mergeCell ref="BF55:BF64"/>
-    <mergeCell ref="BG55:BG64"/>
-    <mergeCell ref="BL55:BL64"/>
-    <mergeCell ref="BO65:BO74"/>
-    <mergeCell ref="BP65:BP74"/>
-    <mergeCell ref="BQ65:BQ74"/>
-    <mergeCell ref="AP65:AP74"/>
-    <mergeCell ref="BC65:BC74"/>
-    <mergeCell ref="BD65:BD74"/>
-    <mergeCell ref="BE65:BE74"/>
-    <mergeCell ref="BF65:BF74"/>
-    <mergeCell ref="BG65:BG74"/>
-    <mergeCell ref="BL65:BL74"/>
-    <mergeCell ref="BM65:BM74"/>
-    <mergeCell ref="BN65:BN74"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="E65:E74"/>
-    <mergeCell ref="F65:F74"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="BM75:BM84"/>
-    <mergeCell ref="BN75:BN84"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="B75:B84"/>
-    <mergeCell ref="C75:C84"/>
-    <mergeCell ref="D75:D84"/>
-    <mergeCell ref="E75:E84"/>
-    <mergeCell ref="F75:F84"/>
-    <mergeCell ref="G75:G84"/>
-    <mergeCell ref="H65:H74"/>
-    <mergeCell ref="I65:I74"/>
-    <mergeCell ref="W65:W74"/>
-    <mergeCell ref="X65:X74"/>
-    <mergeCell ref="AF65:AF74"/>
-    <mergeCell ref="AG65:AG74"/>
-    <mergeCell ref="AH65:AH74"/>
-    <mergeCell ref="I95:I104"/>
-    <mergeCell ref="BO75:BO84"/>
-    <mergeCell ref="BP75:BP84"/>
-    <mergeCell ref="BQ75:BQ84"/>
-    <mergeCell ref="AP75:AP84"/>
-    <mergeCell ref="BC75:BC84"/>
-    <mergeCell ref="BD75:BD84"/>
-    <mergeCell ref="BE75:BE84"/>
-    <mergeCell ref="BF75:BF84"/>
-    <mergeCell ref="BG75:BG84"/>
-    <mergeCell ref="BL75:BL84"/>
-    <mergeCell ref="H75:H84"/>
-    <mergeCell ref="I75:I84"/>
-    <mergeCell ref="W75:W84"/>
-    <mergeCell ref="X75:X84"/>
-    <mergeCell ref="AF75:AF84"/>
-    <mergeCell ref="AG75:AG84"/>
-    <mergeCell ref="AH75:AH84"/>
-    <mergeCell ref="H85:H94"/>
-    <mergeCell ref="I85:I94"/>
-    <mergeCell ref="W85:W94"/>
-    <mergeCell ref="X85:X94"/>
-    <mergeCell ref="AF85:AF94"/>
-    <mergeCell ref="AG85:AG94"/>
-    <mergeCell ref="AH85:AH94"/>
-    <mergeCell ref="BO85:BO94"/>
-    <mergeCell ref="BP85:BP94"/>
-    <mergeCell ref="BQ85:BQ94"/>
-    <mergeCell ref="AP85:AP94"/>
-    <mergeCell ref="BC85:BC94"/>
-    <mergeCell ref="BD85:BD94"/>
-    <mergeCell ref="BE85:BE94"/>
-    <mergeCell ref="BF85:BF94"/>
-    <mergeCell ref="BG85:BG94"/>
-    <mergeCell ref="BL85:BL94"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="C85:C94"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E85:E94"/>
-    <mergeCell ref="F85:F94"/>
-    <mergeCell ref="G85:G94"/>
-    <mergeCell ref="BM95:BM104"/>
-    <mergeCell ref="BN95:BN104"/>
-    <mergeCell ref="BM85:BM94"/>
-    <mergeCell ref="BN85:BN94"/>
-    <mergeCell ref="W95:W104"/>
-    <mergeCell ref="X95:X104"/>
-    <mergeCell ref="AF95:AF104"/>
-    <mergeCell ref="AG95:AG104"/>
-    <mergeCell ref="AH95:AH104"/>
-    <mergeCell ref="A95:A104"/>
-    <mergeCell ref="B95:B104"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="D95:D104"/>
-    <mergeCell ref="E95:E104"/>
-    <mergeCell ref="F95:F104"/>
-    <mergeCell ref="G95:G104"/>
-    <mergeCell ref="H95:H104"/>
-    <mergeCell ref="BO95:BO104"/>
-    <mergeCell ref="BP95:BP104"/>
-    <mergeCell ref="BQ95:BQ104"/>
-    <mergeCell ref="AP95:AP104"/>
-    <mergeCell ref="BC95:BC104"/>
-    <mergeCell ref="BD95:BD104"/>
-    <mergeCell ref="BE95:BE104"/>
-    <mergeCell ref="BF95:BF104"/>
-    <mergeCell ref="BG95:BG104"/>
-    <mergeCell ref="BL95:BL104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="24">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="23">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Pre-defined lists'!$C$2:$C$7</xm:f>
@@ -17325,13 +17410,7 @@
           <x14:formula1>
             <xm:f>'Pre-defined lists'!$F$2:$F$256</xm:f>
           </x14:formula1>
-          <xm:sqref>BH15:BH104</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." xr:uid="{2928B762-3373-4DF4-8FCD-C77C333896AD}">
-          <x14:formula1>
-            <xm:f>'Pre-defined lists'!$F$2:$F$256</xm:f>
-          </x14:formula1>
-          <xm:sqref>T15:T104</xm:sqref>
+          <xm:sqref>BH15:BH104 T15:T104</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17343,8 +17422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D215" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17453,7 +17532,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>102</v>
@@ -17530,7 +17609,7 @@
         <v>122</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>124</v>
@@ -17598,7 +17677,7 @@
         <v>141</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>142</v>
+        <v>723</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>143</v>
@@ -17607,7 +17686,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58" t="s">
@@ -17730,29 +17809,29 @@
         <v>177</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="E6" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>180</v>
-      </c>
       <c r="F6" s="58" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="J6" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="K6" s="58" t="s">
         <v>184</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>185</v>
       </c>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
@@ -17762,13 +17841,13 @@
         <v>1.85</v>
       </c>
       <c r="Q6" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="R6" s="58" t="s">
+      <c r="S6" s="58" t="s">
         <v>187</v>
-      </c>
-      <c r="S6" s="58" t="s">
-        <v>188</v>
       </c>
       <c r="T6" s="58"/>
       <c r="U6" s="58"/>
@@ -17779,47 +17858,47 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>190</v>
-      </c>
       <c r="C7" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>191</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>192</v>
       </c>
       <c r="E7" s="60"/>
       <c r="F7" s="58" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="K7" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
       <c r="P7" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="Q7" s="58" t="s">
+      <c r="R7" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="R7" s="58" t="s">
+      <c r="S7" s="58" t="s">
         <v>199</v>
-      </c>
-      <c r="S7" s="58" t="s">
-        <v>200</v>
       </c>
       <c r="T7" s="58"/>
       <c r="U7" s="58"/>
@@ -17830,29 +17909,29 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>201</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>202</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="K8" s="58" t="s">
         <v>206</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>207</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
@@ -17860,13 +17939,13 @@
       <c r="O8" s="58"/>
       <c r="P8" s="58"/>
       <c r="Q8" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="R8" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="R8" s="58" t="s">
+      <c r="S8" s="58" t="s">
         <v>209</v>
-      </c>
-      <c r="S8" s="58" t="s">
-        <v>210</v>
       </c>
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
@@ -17877,27 +17956,27 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>211</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>212</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
       <c r="I9" s="58"/>
       <c r="J9" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="58" t="s">
         <v>215</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>216</v>
       </c>
       <c r="L9" s="58"/>
       <c r="M9" s="58"/>
@@ -17906,10 +17985,10 @@
       <c r="P9" s="58"/>
       <c r="Q9" s="58"/>
       <c r="R9" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="S9" s="58" t="s">
         <v>217</v>
-      </c>
-      <c r="S9" s="58" t="s">
-        <v>218</v>
       </c>
       <c r="T9" s="58"/>
       <c r="U9" s="58"/>
@@ -17920,14 +17999,14 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="58" t="s">
         <v>219</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>220</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="58" t="s">
@@ -17938,7 +18017,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" s="58"/>
       <c r="M10" s="58"/>
@@ -17947,10 +18026,10 @@
       <c r="P10" s="58"/>
       <c r="Q10" s="58"/>
       <c r="R10" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="S10" s="58" t="s">
         <v>224</v>
-      </c>
-      <c r="S10" s="58" t="s">
-        <v>225</v>
       </c>
       <c r="T10" s="58"/>
       <c r="U10" s="58"/>
@@ -17961,14 +18040,14 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="58" t="s">
         <v>226</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>227</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="58" t="s">
@@ -17979,7 +18058,7 @@
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L11" s="58"/>
       <c r="M11" s="58"/>
@@ -17989,7 +18068,7 @@
       <c r="Q11" s="58"/>
       <c r="R11" s="58"/>
       <c r="S11" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T11" s="58"/>
       <c r="U11" s="58"/>
@@ -18000,25 +18079,25 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>232</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>233</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="58" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
       <c r="K12" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="58"/>
@@ -18028,7 +18107,7 @@
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
       <c r="S12" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T12" s="58"/>
       <c r="U12" s="58"/>
@@ -18039,25 +18118,25 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>238</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>239</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="58" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L13" s="58"/>
       <c r="M13" s="58"/>
@@ -18067,7 +18146,7 @@
       <c r="Q13" s="58"/>
       <c r="R13" s="58"/>
       <c r="S13" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T13" s="58"/>
       <c r="U13" s="58"/>
@@ -18078,23 +18157,23 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="58"/>
       <c r="C14" s="64"/>
       <c r="D14" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -18104,7 +18183,7 @@
       <c r="Q14" s="58"/>
       <c r="R14" s="58"/>
       <c r="S14" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T14" s="58"/>
       <c r="U14" s="58"/>
@@ -18115,23 +18194,23 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="65"/>
       <c r="D15" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
       <c r="J15" s="58"/>
       <c r="K15" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
@@ -18150,16 +18229,16 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="64"/>
       <c r="D16" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
@@ -18183,16 +18262,16 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="64"/>
       <c r="D17" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="58" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
@@ -18216,16 +18295,16 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="65"/>
       <c r="D18" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -18252,11 +18331,11 @@
       <c r="B19" s="58"/>
       <c r="C19" s="65"/>
       <c r="D19" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
@@ -18283,11 +18362,11 @@
       <c r="B20" s="58"/>
       <c r="C20" s="65"/>
       <c r="D20" s="58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
@@ -18314,11 +18393,11 @@
       <c r="B21" s="58"/>
       <c r="C21" s="65"/>
       <c r="D21" s="58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
@@ -18345,11 +18424,11 @@
       <c r="B22" s="58"/>
       <c r="C22" s="65"/>
       <c r="D22" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
@@ -18376,11 +18455,11 @@
       <c r="B23" s="58"/>
       <c r="C23" s="65"/>
       <c r="D23" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
@@ -18407,11 +18486,11 @@
       <c r="B24" s="58"/>
       <c r="C24" s="65"/>
       <c r="D24" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
@@ -18438,11 +18517,11 @@
       <c r="B25" s="58"/>
       <c r="C25" s="65"/>
       <c r="D25" s="58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
@@ -18469,11 +18548,11 @@
       <c r="B26" s="58"/>
       <c r="C26" s="65"/>
       <c r="D26" s="58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E26" s="60"/>
       <c r="F26" s="58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
@@ -18500,11 +18579,11 @@
       <c r="B27" s="58"/>
       <c r="C27" s="65"/>
       <c r="D27" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E27" s="60"/>
       <c r="F27" s="58" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
@@ -18531,11 +18610,11 @@
       <c r="B28" s="58"/>
       <c r="C28" s="65"/>
       <c r="D28" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" s="60"/>
       <c r="F28" s="58" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -18562,11 +18641,11 @@
       <c r="B29" s="58"/>
       <c r="C29" s="65"/>
       <c r="D29" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="58" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -18593,11 +18672,11 @@
       <c r="B30" s="58"/>
       <c r="C30" s="65"/>
       <c r="D30" s="58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G30" s="58"/>
       <c r="H30" s="58"/>
@@ -18624,11 +18703,11 @@
       <c r="B31" s="58"/>
       <c r="C31" s="65"/>
       <c r="D31" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="58" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
@@ -18655,11 +18734,11 @@
       <c r="B32" s="58"/>
       <c r="C32" s="65"/>
       <c r="D32" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="60"/>
       <c r="F32" s="58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
@@ -18686,11 +18765,11 @@
       <c r="B33" s="58"/>
       <c r="C33" s="65"/>
       <c r="D33" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E33" s="60"/>
       <c r="F33" s="58" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G33" s="58"/>
       <c r="H33" s="58"/>
@@ -18717,11 +18796,11 @@
       <c r="B34" s="58"/>
       <c r="C34" s="65"/>
       <c r="D34" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E34" s="60"/>
       <c r="F34" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
@@ -18748,11 +18827,11 @@
       <c r="B35" s="58"/>
       <c r="C35" s="65"/>
       <c r="D35" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" s="58"/>
       <c r="H35" s="58"/>
@@ -18779,11 +18858,11 @@
       <c r="B36" s="58"/>
       <c r="C36" s="65"/>
       <c r="D36" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="58" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G36" s="58"/>
       <c r="H36" s="58"/>
@@ -18810,11 +18889,11 @@
       <c r="B37" s="58"/>
       <c r="C37" s="65"/>
       <c r="D37" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G37" s="58"/>
       <c r="H37" s="58"/>
@@ -18841,11 +18920,11 @@
       <c r="B38" s="58"/>
       <c r="C38" s="65"/>
       <c r="D38" s="58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E38" s="60"/>
       <c r="F38" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G38" s="58"/>
       <c r="H38" s="58"/>
@@ -18872,11 +18951,11 @@
       <c r="B39" s="58"/>
       <c r="C39" s="65"/>
       <c r="D39" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E39" s="60"/>
       <c r="F39" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
@@ -18903,11 +18982,11 @@
       <c r="B40" s="58"/>
       <c r="C40" s="65"/>
       <c r="D40" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E40" s="60"/>
       <c r="F40" s="58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
@@ -18934,11 +19013,11 @@
       <c r="B41" s="58"/>
       <c r="C41" s="65"/>
       <c r="D41" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41" s="60"/>
       <c r="F41" s="58" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
@@ -18965,11 +19044,11 @@
       <c r="B42" s="58"/>
       <c r="C42" s="65"/>
       <c r="D42" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="60"/>
       <c r="F42" s="58" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G42" s="58"/>
       <c r="H42" s="58"/>
@@ -18996,11 +19075,11 @@
       <c r="B43" s="58"/>
       <c r="C43" s="65"/>
       <c r="D43" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E43" s="60"/>
       <c r="F43" s="58" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G43" s="58"/>
       <c r="H43" s="58"/>
@@ -19027,11 +19106,11 @@
       <c r="B44" s="58"/>
       <c r="C44" s="65"/>
       <c r="D44" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E44" s="60"/>
       <c r="F44" s="58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G44" s="58"/>
       <c r="H44" s="58"/>
@@ -19058,11 +19137,11 @@
       <c r="B45" s="58"/>
       <c r="C45" s="65"/>
       <c r="D45" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E45" s="60"/>
       <c r="F45" s="58" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G45" s="58"/>
       <c r="H45" s="58"/>
@@ -19089,11 +19168,11 @@
       <c r="B46" s="58"/>
       <c r="C46" s="65"/>
       <c r="D46" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E46" s="60"/>
       <c r="F46" s="58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="58"/>
@@ -19120,11 +19199,11 @@
       <c r="B47" s="58"/>
       <c r="C47" s="65"/>
       <c r="D47" s="58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E47" s="60"/>
       <c r="F47" s="58" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G47" s="58"/>
       <c r="H47" s="58"/>
@@ -19151,11 +19230,11 @@
       <c r="B48" s="58"/>
       <c r="C48" s="65"/>
       <c r="D48" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E48" s="60"/>
       <c r="F48" s="58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
@@ -19182,11 +19261,11 @@
       <c r="B49" s="58"/>
       <c r="C49" s="65"/>
       <c r="D49" s="58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E49" s="60"/>
       <c r="F49" s="58" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G49" s="58"/>
       <c r="H49" s="58"/>
@@ -19213,11 +19292,11 @@
       <c r="B50" s="58"/>
       <c r="C50" s="65"/>
       <c r="D50" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E50" s="60"/>
       <c r="F50" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G50" s="58"/>
       <c r="H50" s="58"/>
@@ -19244,11 +19323,11 @@
       <c r="B51" s="58"/>
       <c r="C51" s="65"/>
       <c r="D51" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E51" s="60"/>
       <c r="F51" s="58" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G51" s="58"/>
       <c r="H51" s="58"/>
@@ -19275,11 +19354,11 @@
       <c r="B52" s="58"/>
       <c r="C52" s="65"/>
       <c r="D52" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E52" s="60"/>
       <c r="F52" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
@@ -19306,11 +19385,11 @@
       <c r="B53" s="58"/>
       <c r="C53" s="65"/>
       <c r="D53" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E53" s="60"/>
       <c r="F53" s="58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -19337,11 +19416,11 @@
       <c r="B54" s="58"/>
       <c r="C54" s="65"/>
       <c r="D54" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E54" s="60"/>
       <c r="F54" s="58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
@@ -19368,11 +19447,11 @@
       <c r="B55" s="58"/>
       <c r="C55" s="65"/>
       <c r="D55" s="58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E55" s="60"/>
       <c r="F55" s="58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
@@ -19399,11 +19478,11 @@
       <c r="B56" s="58"/>
       <c r="C56" s="65"/>
       <c r="D56" s="58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E56" s="60"/>
       <c r="F56" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
@@ -19430,11 +19509,11 @@
       <c r="B57" s="58"/>
       <c r="C57" s="65"/>
       <c r="D57" s="58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E57" s="60"/>
       <c r="F57" s="58" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G57" s="58"/>
       <c r="H57" s="58"/>
@@ -19461,11 +19540,11 @@
       <c r="B58" s="58"/>
       <c r="C58" s="65"/>
       <c r="D58" s="58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E58" s="60"/>
       <c r="F58" s="58" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G58" s="58"/>
       <c r="H58" s="58"/>
@@ -19492,11 +19571,11 @@
       <c r="B59" s="58"/>
       <c r="C59" s="65"/>
       <c r="D59" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E59" s="60"/>
       <c r="F59" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -19523,11 +19602,11 @@
       <c r="B60" s="58"/>
       <c r="C60" s="65"/>
       <c r="D60" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E60" s="60"/>
       <c r="F60" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
@@ -19554,11 +19633,11 @@
       <c r="B61" s="58"/>
       <c r="C61" s="65"/>
       <c r="D61" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E61" s="60"/>
       <c r="F61" s="58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -19585,11 +19664,11 @@
       <c r="B62" s="58"/>
       <c r="C62" s="65"/>
       <c r="D62" s="58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E62" s="60"/>
       <c r="F62" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -19616,11 +19695,11 @@
       <c r="B63" s="58"/>
       <c r="C63" s="65"/>
       <c r="D63" s="58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E63" s="60"/>
       <c r="F63" s="58" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
@@ -19647,11 +19726,11 @@
       <c r="B64" s="58"/>
       <c r="C64" s="65"/>
       <c r="D64" s="58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E64" s="60"/>
       <c r="F64" s="58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G64" s="58"/>
       <c r="H64" s="58"/>
@@ -19678,11 +19757,11 @@
       <c r="B65" s="58"/>
       <c r="C65" s="65"/>
       <c r="D65" s="58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E65" s="60"/>
       <c r="F65" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
@@ -19709,11 +19788,11 @@
       <c r="B66" s="58"/>
       <c r="C66" s="65"/>
       <c r="D66" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E66" s="60"/>
       <c r="F66" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
@@ -19740,11 +19819,11 @@
       <c r="B67" s="58"/>
       <c r="C67" s="65"/>
       <c r="D67" s="58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E67" s="60"/>
       <c r="F67" s="58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
@@ -19771,11 +19850,11 @@
       <c r="B68" s="58"/>
       <c r="C68" s="65"/>
       <c r="D68" s="58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E68" s="60"/>
       <c r="F68" s="58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -19802,11 +19881,11 @@
       <c r="B69" s="58"/>
       <c r="C69" s="65"/>
       <c r="D69" s="58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E69" s="60"/>
       <c r="F69" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
@@ -19833,11 +19912,11 @@
       <c r="B70" s="58"/>
       <c r="C70" s="65"/>
       <c r="D70" s="58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E70" s="60"/>
       <c r="F70" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G70" s="58"/>
       <c r="H70" s="58"/>
@@ -19864,11 +19943,11 @@
       <c r="B71" s="58"/>
       <c r="C71" s="65"/>
       <c r="D71" s="58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E71" s="60"/>
       <c r="F71" s="58" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -19895,11 +19974,11 @@
       <c r="B72" s="58"/>
       <c r="C72" s="65"/>
       <c r="D72" s="58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E72" s="60"/>
       <c r="F72" s="58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G72" s="58"/>
       <c r="H72" s="58"/>
@@ -19926,11 +20005,11 @@
       <c r="B73" s="58"/>
       <c r="C73" s="65"/>
       <c r="D73" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E73" s="60"/>
       <c r="F73" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G73" s="58"/>
       <c r="H73" s="58"/>
@@ -19957,11 +20036,11 @@
       <c r="B74" s="58"/>
       <c r="C74" s="65"/>
       <c r="D74" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E74" s="60"/>
       <c r="F74" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G74" s="58"/>
       <c r="H74" s="58"/>
@@ -19988,11 +20067,11 @@
       <c r="B75" s="58"/>
       <c r="C75" s="65"/>
       <c r="D75" s="58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E75" s="60"/>
       <c r="F75" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G75" s="58"/>
       <c r="H75" s="58"/>
@@ -20019,11 +20098,11 @@
       <c r="B76" s="58"/>
       <c r="C76" s="65"/>
       <c r="D76" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E76" s="60"/>
       <c r="F76" s="58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G76" s="58"/>
       <c r="H76" s="58"/>
@@ -20050,11 +20129,11 @@
       <c r="B77" s="58"/>
       <c r="C77" s="65"/>
       <c r="D77" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E77" s="60"/>
       <c r="F77" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G77" s="58"/>
       <c r="H77" s="58"/>
@@ -20081,11 +20160,11 @@
       <c r="B78" s="58"/>
       <c r="C78" s="65"/>
       <c r="D78" s="58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E78" s="60"/>
       <c r="F78" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G78" s="58"/>
       <c r="H78" s="58"/>
@@ -20112,11 +20191,11 @@
       <c r="B79" s="58"/>
       <c r="C79" s="65"/>
       <c r="D79" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E79" s="60"/>
       <c r="F79" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G79" s="58"/>
       <c r="H79" s="58"/>
@@ -20143,11 +20222,11 @@
       <c r="B80" s="58"/>
       <c r="C80" s="65"/>
       <c r="D80" s="58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E80" s="60"/>
       <c r="F80" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G80" s="58"/>
       <c r="H80" s="58"/>
@@ -20174,11 +20253,11 @@
       <c r="B81" s="58"/>
       <c r="C81" s="65"/>
       <c r="D81" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E81" s="60"/>
       <c r="F81" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G81" s="58"/>
       <c r="H81" s="58"/>
@@ -20205,11 +20284,11 @@
       <c r="B82" s="58"/>
       <c r="C82" s="65"/>
       <c r="D82" s="58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E82" s="60"/>
       <c r="F82" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G82" s="58"/>
       <c r="H82" s="58"/>
@@ -20236,11 +20315,11 @@
       <c r="B83" s="58"/>
       <c r="C83" s="65"/>
       <c r="D83" s="58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E83" s="60"/>
       <c r="F83" s="58" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G83" s="58"/>
       <c r="H83" s="58"/>
@@ -20267,11 +20346,11 @@
       <c r="B84" s="58"/>
       <c r="C84" s="65"/>
       <c r="D84" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E84" s="60"/>
       <c r="F84" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G84" s="58"/>
       <c r="H84" s="58"/>
@@ -20298,11 +20377,11 @@
       <c r="B85" s="58"/>
       <c r="C85" s="65"/>
       <c r="D85" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E85" s="60"/>
       <c r="F85" s="58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G85" s="58"/>
       <c r="H85" s="58"/>
@@ -20329,11 +20408,11 @@
       <c r="B86" s="58"/>
       <c r="C86" s="65"/>
       <c r="D86" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E86" s="60"/>
       <c r="F86" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G86" s="58"/>
       <c r="H86" s="58"/>
@@ -20360,11 +20439,11 @@
       <c r="B87" s="58"/>
       <c r="C87" s="65"/>
       <c r="D87" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E87" s="60"/>
       <c r="F87" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G87" s="58"/>
       <c r="H87" s="58"/>
@@ -20391,11 +20470,11 @@
       <c r="B88" s="58"/>
       <c r="C88" s="65"/>
       <c r="D88" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E88" s="60"/>
       <c r="F88" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G88" s="58"/>
       <c r="H88" s="58"/>
@@ -20422,11 +20501,11 @@
       <c r="B89" s="58"/>
       <c r="C89" s="65"/>
       <c r="D89" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E89" s="60"/>
       <c r="F89" s="58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G89" s="58"/>
       <c r="H89" s="58"/>
@@ -20453,11 +20532,11 @@
       <c r="B90" s="58"/>
       <c r="C90" s="65"/>
       <c r="D90" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E90" s="60"/>
       <c r="F90" s="58" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G90" s="58"/>
       <c r="H90" s="58"/>
@@ -20484,11 +20563,11 @@
       <c r="B91" s="58"/>
       <c r="C91" s="65"/>
       <c r="D91" s="58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E91" s="60"/>
       <c r="F91" s="58" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G91" s="58"/>
       <c r="H91" s="58"/>
@@ -20515,11 +20594,11 @@
       <c r="B92" s="58"/>
       <c r="C92" s="65"/>
       <c r="D92" s="58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E92" s="60"/>
       <c r="F92" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G92" s="58"/>
       <c r="H92" s="58"/>
@@ -20546,11 +20625,11 @@
       <c r="B93" s="58"/>
       <c r="C93" s="65"/>
       <c r="D93" s="58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E93" s="60"/>
       <c r="F93" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G93" s="58"/>
       <c r="H93" s="58"/>
@@ -20577,11 +20656,11 @@
       <c r="B94" s="58"/>
       <c r="C94" s="65"/>
       <c r="D94" s="58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E94" s="60"/>
       <c r="F94" s="58" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G94" s="58"/>
       <c r="H94" s="58"/>
@@ -20608,11 +20687,11 @@
       <c r="B95" s="58"/>
       <c r="C95" s="65"/>
       <c r="D95" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E95" s="60"/>
       <c r="F95" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G95" s="58"/>
       <c r="H95" s="58"/>
@@ -20639,11 +20718,11 @@
       <c r="B96" s="58"/>
       <c r="C96" s="65"/>
       <c r="D96" s="58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E96" s="60"/>
       <c r="F96" s="58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G96" s="58"/>
       <c r="H96" s="58"/>
@@ -20670,11 +20749,11 @@
       <c r="B97" s="58"/>
       <c r="C97" s="65"/>
       <c r="D97" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E97" s="60"/>
       <c r="F97" s="58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G97" s="58"/>
       <c r="H97" s="58"/>
@@ -20701,11 +20780,11 @@
       <c r="B98" s="58"/>
       <c r="C98" s="65"/>
       <c r="D98" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E98" s="60"/>
       <c r="F98" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G98" s="58"/>
       <c r="H98" s="58"/>
@@ -20732,11 +20811,11 @@
       <c r="B99" s="58"/>
       <c r="C99" s="65"/>
       <c r="D99" s="58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E99" s="60"/>
       <c r="F99" s="58" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G99" s="58"/>
       <c r="H99" s="58"/>
@@ -20763,11 +20842,11 @@
       <c r="B100" s="58"/>
       <c r="C100" s="65"/>
       <c r="D100" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E100" s="60"/>
       <c r="F100" s="58" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G100" s="58"/>
       <c r="H100" s="58"/>
@@ -20794,11 +20873,11 @@
       <c r="B101" s="58"/>
       <c r="C101" s="65"/>
       <c r="D101" s="58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E101" s="60"/>
       <c r="F101" s="58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G101" s="58"/>
       <c r="H101" s="58"/>
@@ -20825,11 +20904,11 @@
       <c r="B102" s="58"/>
       <c r="C102" s="65"/>
       <c r="D102" s="58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E102" s="60"/>
       <c r="F102" s="58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G102" s="58"/>
       <c r="H102" s="58"/>
@@ -20856,11 +20935,11 @@
       <c r="B103" s="58"/>
       <c r="C103" s="65"/>
       <c r="D103" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E103" s="60"/>
       <c r="F103" s="58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G103" s="58"/>
       <c r="H103" s="58"/>
@@ -20887,11 +20966,11 @@
       <c r="B104" s="58"/>
       <c r="C104" s="65"/>
       <c r="D104" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E104" s="60"/>
       <c r="F104" s="58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G104" s="58"/>
       <c r="H104" s="58"/>
@@ -20918,11 +20997,11 @@
       <c r="B105" s="58"/>
       <c r="C105" s="65"/>
       <c r="D105" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E105" s="60"/>
       <c r="F105" s="58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G105" s="58"/>
       <c r="H105" s="58"/>
@@ -20949,11 +21028,11 @@
       <c r="B106" s="58"/>
       <c r="C106" s="65"/>
       <c r="D106" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E106" s="60"/>
       <c r="F106" s="58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G106" s="58"/>
       <c r="H106" s="58"/>
@@ -20980,11 +21059,11 @@
       <c r="B107" s="58"/>
       <c r="C107" s="65"/>
       <c r="D107" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E107" s="60"/>
       <c r="F107" s="58" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G107" s="58"/>
       <c r="H107" s="58"/>
@@ -21011,11 +21090,11 @@
       <c r="B108" s="58"/>
       <c r="C108" s="65"/>
       <c r="D108" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E108" s="60"/>
       <c r="F108" s="58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G108" s="58"/>
       <c r="H108" s="58"/>
@@ -21042,11 +21121,11 @@
       <c r="B109" s="58"/>
       <c r="C109" s="65"/>
       <c r="D109" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E109" s="60"/>
       <c r="F109" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G109" s="58"/>
       <c r="H109" s="58"/>
@@ -21073,11 +21152,11 @@
       <c r="B110" s="58"/>
       <c r="C110" s="65"/>
       <c r="D110" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E110" s="60"/>
       <c r="F110" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G110" s="58"/>
       <c r="H110" s="58"/>
@@ -21104,11 +21183,11 @@
       <c r="B111" s="58"/>
       <c r="C111" s="65"/>
       <c r="D111" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E111" s="60"/>
       <c r="F111" s="58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G111" s="58"/>
       <c r="H111" s="58"/>
@@ -21135,11 +21214,11 @@
       <c r="B112" s="58"/>
       <c r="C112" s="65"/>
       <c r="D112" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E112" s="60"/>
       <c r="F112" s="58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G112" s="58"/>
       <c r="H112" s="58"/>
@@ -21166,11 +21245,11 @@
       <c r="B113" s="58"/>
       <c r="C113" s="65"/>
       <c r="D113" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E113" s="60"/>
       <c r="F113" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G113" s="58"/>
       <c r="H113" s="58"/>
@@ -21197,11 +21276,11 @@
       <c r="B114" s="58"/>
       <c r="C114" s="65"/>
       <c r="D114" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E114" s="60"/>
       <c r="F114" s="58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G114" s="58"/>
       <c r="H114" s="58"/>
@@ -21228,11 +21307,11 @@
       <c r="B115" s="58"/>
       <c r="C115" s="65"/>
       <c r="D115" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E115" s="60"/>
       <c r="F115" s="58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G115" s="58"/>
       <c r="H115" s="58"/>
@@ -21259,11 +21338,11 @@
       <c r="B116" s="58"/>
       <c r="C116" s="65"/>
       <c r="D116" s="58" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E116" s="60"/>
       <c r="F116" s="58" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G116" s="58"/>
       <c r="H116" s="58"/>
@@ -21290,11 +21369,11 @@
       <c r="B117" s="58"/>
       <c r="C117" s="65"/>
       <c r="D117" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E117" s="60"/>
       <c r="F117" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G117" s="58"/>
       <c r="H117" s="58"/>
@@ -21321,11 +21400,11 @@
       <c r="B118" s="58"/>
       <c r="C118" s="65"/>
       <c r="D118" s="58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E118" s="60"/>
       <c r="F118" s="58" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G118" s="58"/>
       <c r="H118" s="58"/>
@@ -21352,11 +21431,11 @@
       <c r="B119" s="58"/>
       <c r="C119" s="65"/>
       <c r="D119" s="58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E119" s="60"/>
       <c r="F119" s="58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G119" s="58"/>
       <c r="H119" s="58"/>
@@ -21383,11 +21462,11 @@
       <c r="B120" s="58"/>
       <c r="C120" s="65"/>
       <c r="D120" s="58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E120" s="60"/>
       <c r="F120" s="58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G120" s="58"/>
       <c r="H120" s="58"/>
@@ -21414,11 +21493,11 @@
       <c r="B121" s="58"/>
       <c r="C121" s="65"/>
       <c r="D121" s="58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E121" s="60"/>
       <c r="F121" s="58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G121" s="58"/>
       <c r="H121" s="58"/>
@@ -21445,11 +21524,11 @@
       <c r="B122" s="58"/>
       <c r="C122" s="65"/>
       <c r="D122" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E122" s="60"/>
       <c r="F122" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G122" s="58"/>
       <c r="H122" s="58"/>
@@ -21476,11 +21555,11 @@
       <c r="B123" s="58"/>
       <c r="C123" s="65"/>
       <c r="D123" s="58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E123" s="60"/>
       <c r="F123" s="58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G123" s="58"/>
       <c r="H123" s="58"/>
@@ -21507,11 +21586,11 @@
       <c r="B124" s="58"/>
       <c r="C124" s="65"/>
       <c r="D124" s="58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E124" s="60"/>
       <c r="F124" s="58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G124" s="58"/>
       <c r="H124" s="58"/>
@@ -21538,11 +21617,11 @@
       <c r="B125" s="58"/>
       <c r="C125" s="65"/>
       <c r="D125" s="58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E125" s="60"/>
       <c r="F125" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G125" s="58"/>
       <c r="H125" s="58"/>
@@ -21569,11 +21648,11 @@
       <c r="B126" s="58"/>
       <c r="C126" s="65"/>
       <c r="D126" s="58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E126" s="60"/>
       <c r="F126" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G126" s="58"/>
       <c r="H126" s="58"/>
@@ -21600,11 +21679,11 @@
       <c r="B127" s="58"/>
       <c r="C127" s="65"/>
       <c r="D127" s="58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E127" s="60"/>
       <c r="F127" s="58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G127" s="58"/>
       <c r="H127" s="58"/>
@@ -21631,11 +21710,11 @@
       <c r="B128" s="58"/>
       <c r="C128" s="65"/>
       <c r="D128" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E128" s="60"/>
       <c r="F128" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G128" s="58"/>
       <c r="H128" s="58"/>
@@ -21662,11 +21741,11 @@
       <c r="B129" s="58"/>
       <c r="C129" s="65"/>
       <c r="D129" s="58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E129" s="60"/>
       <c r="F129" s="58" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G129" s="58"/>
       <c r="H129" s="58"/>
@@ -21693,11 +21772,11 @@
       <c r="B130" s="58"/>
       <c r="C130" s="65"/>
       <c r="D130" s="58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E130" s="60"/>
       <c r="F130" s="58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G130" s="58"/>
       <c r="H130" s="58"/>
@@ -21724,11 +21803,11 @@
       <c r="B131" s="58"/>
       <c r="C131" s="65"/>
       <c r="D131" s="58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E131" s="60"/>
       <c r="F131" s="58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G131" s="58"/>
       <c r="H131" s="58"/>
@@ -21755,11 +21834,11 @@
       <c r="B132" s="58"/>
       <c r="C132" s="65"/>
       <c r="D132" s="58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E132" s="60"/>
       <c r="F132" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G132" s="58"/>
       <c r="H132" s="58"/>
@@ -21786,11 +21865,11 @@
       <c r="B133" s="58"/>
       <c r="C133" s="65"/>
       <c r="D133" s="58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E133" s="60"/>
       <c r="F133" s="58" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G133" s="58"/>
       <c r="H133" s="58"/>
@@ -21817,11 +21896,11 @@
       <c r="B134" s="58"/>
       <c r="C134" s="65"/>
       <c r="D134" s="58" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E134" s="60"/>
       <c r="F134" s="58" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G134" s="58"/>
       <c r="H134" s="58"/>
@@ -21848,11 +21927,11 @@
       <c r="B135" s="58"/>
       <c r="C135" s="65"/>
       <c r="D135" s="58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E135" s="60"/>
       <c r="F135" s="58" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G135" s="58"/>
       <c r="H135" s="58"/>
@@ -21879,11 +21958,11 @@
       <c r="B136" s="58"/>
       <c r="C136" s="65"/>
       <c r="D136" s="58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E136" s="60"/>
       <c r="F136" s="58" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G136" s="58"/>
       <c r="H136" s="58"/>
@@ -21910,11 +21989,11 @@
       <c r="B137" s="58"/>
       <c r="C137" s="65"/>
       <c r="D137" s="58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E137" s="60"/>
       <c r="F137" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G137" s="58"/>
       <c r="H137" s="58"/>
@@ -21941,11 +22020,11 @@
       <c r="B138" s="58"/>
       <c r="C138" s="65"/>
       <c r="D138" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E138" s="60"/>
       <c r="F138" s="58" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G138" s="58"/>
       <c r="H138" s="58"/>
@@ -21972,11 +22051,11 @@
       <c r="B139" s="58"/>
       <c r="C139" s="65"/>
       <c r="D139" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E139" s="60"/>
       <c r="F139" s="58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G139" s="58"/>
       <c r="H139" s="58"/>
@@ -22003,11 +22082,11 @@
       <c r="B140" s="58"/>
       <c r="C140" s="65"/>
       <c r="D140" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E140" s="60"/>
       <c r="F140" s="58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G140" s="58"/>
       <c r="H140" s="58"/>
@@ -22034,11 +22113,11 @@
       <c r="B141" s="58"/>
       <c r="C141" s="65"/>
       <c r="D141" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E141" s="60"/>
       <c r="F141" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G141" s="58"/>
       <c r="H141" s="58"/>
@@ -22065,11 +22144,11 @@
       <c r="B142" s="58"/>
       <c r="C142" s="65"/>
       <c r="D142" s="67" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E142" s="60"/>
       <c r="F142" s="58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G142" s="58"/>
       <c r="H142" s="58"/>
@@ -22096,11 +22175,11 @@
       <c r="B143" s="58"/>
       <c r="C143" s="65"/>
       <c r="D143" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E143" s="60"/>
       <c r="F143" s="58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G143" s="58"/>
       <c r="H143" s="58"/>
@@ -22127,11 +22206,11 @@
       <c r="B144" s="58"/>
       <c r="C144" s="65"/>
       <c r="D144" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E144" s="60"/>
       <c r="F144" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G144" s="58"/>
       <c r="H144" s="58"/>
@@ -22158,11 +22237,11 @@
       <c r="B145" s="58"/>
       <c r="C145" s="65"/>
       <c r="D145" s="58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E145" s="60"/>
       <c r="F145" s="58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G145" s="58"/>
       <c r="H145" s="58"/>
@@ -22189,11 +22268,11 @@
       <c r="B146" s="58"/>
       <c r="C146" s="65"/>
       <c r="D146" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E146" s="60"/>
       <c r="F146" s="58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G146" s="58"/>
       <c r="H146" s="58"/>
@@ -22220,11 +22299,11 @@
       <c r="B147" s="58"/>
       <c r="C147" s="65"/>
       <c r="D147" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E147" s="60"/>
       <c r="F147" s="58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G147" s="58"/>
       <c r="H147" s="58"/>
@@ -22251,11 +22330,11 @@
       <c r="B148" s="58"/>
       <c r="C148" s="65"/>
       <c r="D148" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E148" s="60"/>
       <c r="F148" s="58" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G148" s="58"/>
       <c r="H148" s="58"/>
@@ -22282,11 +22361,11 @@
       <c r="B149" s="58"/>
       <c r="C149" s="65"/>
       <c r="D149" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E149" s="60"/>
       <c r="F149" s="58" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G149" s="58"/>
       <c r="H149" s="58"/>
@@ -22313,11 +22392,11 @@
       <c r="B150" s="58"/>
       <c r="C150" s="65"/>
       <c r="D150" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E150" s="60"/>
       <c r="F150" s="58" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G150" s="58"/>
       <c r="H150" s="58"/>
@@ -22344,11 +22423,11 @@
       <c r="B151" s="58"/>
       <c r="C151" s="65"/>
       <c r="D151" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E151" s="60"/>
       <c r="F151" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G151" s="58"/>
       <c r="H151" s="58"/>
@@ -22375,11 +22454,11 @@
       <c r="B152" s="58"/>
       <c r="C152" s="65"/>
       <c r="D152" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E152" s="60"/>
       <c r="F152" s="58" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G152" s="58"/>
       <c r="H152" s="58"/>
@@ -22406,11 +22485,11 @@
       <c r="B153" s="58"/>
       <c r="C153" s="65"/>
       <c r="D153" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E153" s="60"/>
       <c r="F153" s="58" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G153" s="58"/>
       <c r="H153" s="58"/>
@@ -22437,11 +22516,11 @@
       <c r="B154" s="58"/>
       <c r="C154" s="65"/>
       <c r="D154" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E154" s="60"/>
       <c r="F154" s="58" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G154" s="58"/>
       <c r="H154" s="58"/>
@@ -22468,11 +22547,11 @@
       <c r="B155" s="58"/>
       <c r="C155" s="65"/>
       <c r="D155" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E155" s="60"/>
       <c r="F155" s="58" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G155" s="58"/>
       <c r="H155" s="58"/>
@@ -22499,11 +22578,11 @@
       <c r="B156" s="58"/>
       <c r="C156" s="65"/>
       <c r="D156" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E156" s="60"/>
       <c r="F156" s="58" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G156" s="58"/>
       <c r="H156" s="58"/>
@@ -22530,11 +22609,11 @@
       <c r="B157" s="58"/>
       <c r="C157" s="65"/>
       <c r="D157" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E157" s="60"/>
       <c r="F157" s="58" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G157" s="58"/>
       <c r="H157" s="58"/>
@@ -22561,11 +22640,11 @@
       <c r="B158" s="58"/>
       <c r="C158" s="65"/>
       <c r="D158" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E158" s="60"/>
       <c r="F158" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G158" s="58"/>
       <c r="H158" s="58"/>
@@ -22592,11 +22671,11 @@
       <c r="B159" s="58"/>
       <c r="C159" s="65"/>
       <c r="D159" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E159" s="60"/>
       <c r="F159" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G159" s="58"/>
       <c r="H159" s="58"/>
@@ -22623,11 +22702,11 @@
       <c r="B160" s="58"/>
       <c r="C160" s="65"/>
       <c r="D160" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E160" s="60"/>
       <c r="F160" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G160" s="58"/>
       <c r="H160" s="58"/>
@@ -22654,11 +22733,11 @@
       <c r="B161" s="58"/>
       <c r="C161" s="65"/>
       <c r="D161" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E161" s="60"/>
       <c r="F161" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G161" s="58"/>
       <c r="H161" s="58"/>
@@ -22685,11 +22764,11 @@
       <c r="B162" s="58"/>
       <c r="C162" s="65"/>
       <c r="D162" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E162" s="60"/>
       <c r="F162" s="58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G162" s="58"/>
       <c r="H162" s="58"/>
@@ -22716,11 +22795,11 @@
       <c r="B163" s="58"/>
       <c r="C163" s="65"/>
       <c r="D163" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E163" s="60"/>
       <c r="F163" s="58" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G163" s="58"/>
       <c r="H163" s="58"/>
@@ -22747,11 +22826,11 @@
       <c r="B164" s="58"/>
       <c r="C164" s="65"/>
       <c r="D164" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E164" s="60"/>
       <c r="F164" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G164" s="58"/>
       <c r="H164" s="58"/>
@@ -22778,11 +22857,11 @@
       <c r="B165" s="58"/>
       <c r="C165" s="65"/>
       <c r="D165" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E165" s="60"/>
       <c r="F165" s="58" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G165" s="58"/>
       <c r="H165" s="58"/>
@@ -22809,11 +22888,11 @@
       <c r="B166" s="58"/>
       <c r="C166" s="65"/>
       <c r="D166" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E166" s="60"/>
       <c r="F166" s="58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G166" s="58"/>
       <c r="H166" s="58"/>
@@ -22840,11 +22919,11 @@
       <c r="B167" s="58"/>
       <c r="C167" s="65"/>
       <c r="D167" s="58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E167" s="60"/>
       <c r="F167" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G167" s="58"/>
       <c r="H167" s="58"/>
@@ -22871,11 +22950,11 @@
       <c r="B168" s="58"/>
       <c r="C168" s="65"/>
       <c r="D168" s="58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E168" s="60"/>
       <c r="F168" s="58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G168" s="58"/>
       <c r="H168" s="58"/>
@@ -22902,11 +22981,11 @@
       <c r="B169" s="58"/>
       <c r="C169" s="65"/>
       <c r="D169" s="58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E169" s="60"/>
       <c r="F169" s="58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G169" s="58"/>
       <c r="H169" s="58"/>
@@ -22933,11 +23012,11 @@
       <c r="B170" s="58"/>
       <c r="C170" s="65"/>
       <c r="D170" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E170" s="60"/>
       <c r="F170" s="58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G170" s="58"/>
       <c r="H170" s="58"/>
@@ -22964,11 +23043,11 @@
       <c r="B171" s="58"/>
       <c r="C171" s="65"/>
       <c r="D171" s="58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E171" s="60"/>
       <c r="F171" s="58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G171" s="58"/>
       <c r="H171" s="58"/>
@@ -22995,11 +23074,11 @@
       <c r="B172" s="58"/>
       <c r="C172" s="65"/>
       <c r="D172" s="58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E172" s="60"/>
       <c r="F172" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G172" s="58"/>
       <c r="H172" s="58"/>
@@ -23026,11 +23105,11 @@
       <c r="B173" s="58"/>
       <c r="C173" s="65"/>
       <c r="D173" s="58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E173" s="60"/>
       <c r="F173" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G173" s="58"/>
       <c r="H173" s="58"/>
@@ -23057,11 +23136,11 @@
       <c r="B174" s="58"/>
       <c r="C174" s="65"/>
       <c r="D174" s="58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
@@ -23088,11 +23167,11 @@
       <c r="B175" s="58"/>
       <c r="C175" s="65"/>
       <c r="D175" s="58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E175" s="60"/>
       <c r="F175" s="58" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G175" s="58"/>
       <c r="H175" s="58"/>
@@ -23119,11 +23198,11 @@
       <c r="B176" s="58"/>
       <c r="C176" s="65"/>
       <c r="D176" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E176" s="60"/>
       <c r="F176" s="58" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G176" s="58"/>
       <c r="H176" s="58"/>
@@ -23150,11 +23229,11 @@
       <c r="B177" s="58"/>
       <c r="C177" s="65"/>
       <c r="D177" s="58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E177" s="60"/>
       <c r="F177" s="58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G177" s="58"/>
       <c r="H177" s="58"/>
@@ -23181,11 +23260,11 @@
       <c r="B178" s="58"/>
       <c r="C178" s="65"/>
       <c r="D178" s="58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E178" s="60"/>
       <c r="F178" s="58" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G178" s="58"/>
       <c r="H178" s="58"/>
@@ -23212,11 +23291,11 @@
       <c r="B179" s="58"/>
       <c r="C179" s="65"/>
       <c r="D179" s="58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E179" s="60"/>
       <c r="F179" s="58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G179" s="58"/>
       <c r="H179" s="58"/>
@@ -23243,11 +23322,11 @@
       <c r="B180" s="58"/>
       <c r="C180" s="65"/>
       <c r="D180" s="58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E180" s="60"/>
       <c r="F180" s="58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G180" s="58"/>
       <c r="H180" s="58"/>
@@ -23274,11 +23353,11 @@
       <c r="B181" s="58"/>
       <c r="C181" s="65"/>
       <c r="D181" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E181" s="60"/>
       <c r="F181" s="58" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G181" s="58"/>
       <c r="H181" s="58"/>
@@ -23305,11 +23384,11 @@
       <c r="B182" s="58"/>
       <c r="C182" s="65"/>
       <c r="D182" s="58" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E182" s="60"/>
       <c r="F182" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G182" s="58"/>
       <c r="H182" s="58"/>
@@ -23336,11 +23415,11 @@
       <c r="B183" s="58"/>
       <c r="C183" s="65"/>
       <c r="D183" s="58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E183" s="60"/>
       <c r="F183" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G183" s="58"/>
       <c r="H183" s="58"/>
@@ -23367,11 +23446,11 @@
       <c r="B184" s="58"/>
       <c r="C184" s="65"/>
       <c r="D184" s="58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E184" s="60"/>
       <c r="F184" s="58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G184" s="58"/>
       <c r="H184" s="58"/>
@@ -23398,11 +23477,11 @@
       <c r="B185" s="58"/>
       <c r="C185" s="65"/>
       <c r="D185" s="58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E185" s="60"/>
       <c r="F185" s="58" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G185" s="58"/>
       <c r="H185" s="58"/>
@@ -23429,11 +23508,11 @@
       <c r="B186" s="58"/>
       <c r="C186" s="65"/>
       <c r="D186" s="58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E186" s="60"/>
       <c r="F186" s="58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G186" s="58"/>
       <c r="H186" s="58"/>
@@ -23460,11 +23539,11 @@
       <c r="B187" s="58"/>
       <c r="C187" s="65"/>
       <c r="D187" s="58" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E187" s="60"/>
       <c r="F187" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G187" s="58"/>
       <c r="H187" s="58"/>
@@ -23491,11 +23570,11 @@
       <c r="B188" s="58"/>
       <c r="C188" s="65"/>
       <c r="D188" s="58" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E188" s="60"/>
       <c r="F188" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G188" s="58"/>
       <c r="H188" s="58"/>
@@ -23522,11 +23601,11 @@
       <c r="B189" s="58"/>
       <c r="C189" s="65"/>
       <c r="D189" s="58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E189" s="60"/>
       <c r="F189" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G189" s="58"/>
       <c r="H189" s="58"/>
@@ -23553,11 +23632,11 @@
       <c r="B190" s="58"/>
       <c r="C190" s="65"/>
       <c r="D190" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E190" s="60"/>
       <c r="F190" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G190" s="58"/>
       <c r="H190" s="58"/>
@@ -23584,11 +23663,11 @@
       <c r="B191" s="58"/>
       <c r="C191" s="65"/>
       <c r="D191" s="58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E191" s="60"/>
       <c r="F191" s="58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G191" s="58"/>
       <c r="H191" s="58"/>
@@ -23615,11 +23694,11 @@
       <c r="B192" s="58"/>
       <c r="C192" s="65"/>
       <c r="D192" s="58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E192" s="60"/>
       <c r="F192" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G192" s="58"/>
       <c r="H192" s="58"/>
@@ -23646,11 +23725,11 @@
       <c r="B193" s="58"/>
       <c r="C193" s="65"/>
       <c r="D193" s="58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E193" s="60"/>
       <c r="F193" s="58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G193" s="58"/>
       <c r="H193" s="58"/>
@@ -23677,11 +23756,11 @@
       <c r="B194" s="58"/>
       <c r="C194" s="65"/>
       <c r="D194" s="58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E194" s="60"/>
       <c r="F194" s="58" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G194" s="58"/>
       <c r="H194" s="58"/>
@@ -23708,11 +23787,11 @@
       <c r="B195" s="58"/>
       <c r="C195" s="65"/>
       <c r="D195" s="58" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E195" s="60"/>
       <c r="F195" s="58" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G195" s="58"/>
       <c r="H195" s="58"/>
@@ -23739,11 +23818,11 @@
       <c r="B196" s="58"/>
       <c r="C196" s="65"/>
       <c r="D196" s="58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E196" s="60"/>
       <c r="F196" s="58" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G196" s="58"/>
       <c r="H196" s="58"/>
@@ -23770,11 +23849,11 @@
       <c r="B197" s="58"/>
       <c r="C197" s="65"/>
       <c r="D197" s="58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E197" s="60"/>
       <c r="F197" s="58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G197" s="58"/>
       <c r="H197" s="58"/>
@@ -23801,11 +23880,11 @@
       <c r="B198" s="58"/>
       <c r="C198" s="65"/>
       <c r="D198" s="58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E198" s="60"/>
       <c r="F198" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G198" s="58"/>
       <c r="H198" s="58"/>
@@ -23832,11 +23911,11 @@
       <c r="B199" s="58"/>
       <c r="C199" s="65"/>
       <c r="D199" s="58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E199" s="60"/>
       <c r="F199" s="58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G199" s="58"/>
       <c r="H199" s="58"/>
@@ -23863,11 +23942,11 @@
       <c r="B200" s="58"/>
       <c r="C200" s="65"/>
       <c r="D200" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E200" s="60"/>
       <c r="F200" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G200" s="58"/>
       <c r="H200" s="58"/>
@@ -23894,11 +23973,11 @@
       <c r="B201" s="58"/>
       <c r="C201" s="65"/>
       <c r="D201" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E201" s="60"/>
       <c r="F201" s="58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G201" s="58"/>
       <c r="H201" s="58"/>
@@ -23925,11 +24004,11 @@
       <c r="B202" s="58"/>
       <c r="C202" s="65"/>
       <c r="D202" s="58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E202" s="60"/>
       <c r="F202" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G202" s="58"/>
       <c r="H202" s="58"/>
@@ -23956,11 +24035,11 @@
       <c r="B203" s="58"/>
       <c r="C203" s="65"/>
       <c r="D203" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E203" s="60"/>
       <c r="F203" s="58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G203" s="58"/>
       <c r="H203" s="58"/>
@@ -23987,11 +24066,11 @@
       <c r="B204" s="58"/>
       <c r="C204" s="65"/>
       <c r="D204" s="58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E204" s="60"/>
       <c r="F204" s="58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G204" s="58"/>
       <c r="H204" s="58"/>
@@ -24018,11 +24097,11 @@
       <c r="B205" s="58"/>
       <c r="C205" s="65"/>
       <c r="D205" s="58" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E205" s="60"/>
       <c r="F205" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G205" s="58"/>
       <c r="H205" s="58"/>
@@ -24049,11 +24128,11 @@
       <c r="B206" s="58"/>
       <c r="C206" s="65"/>
       <c r="D206" s="58" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E206" s="60"/>
       <c r="F206" s="58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G206" s="58"/>
       <c r="H206" s="58"/>
@@ -24080,11 +24159,11 @@
       <c r="B207" s="58"/>
       <c r="C207" s="65"/>
       <c r="D207" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E207" s="60"/>
       <c r="F207" s="58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G207" s="58"/>
       <c r="H207" s="58"/>
@@ -24111,11 +24190,11 @@
       <c r="B208" s="58"/>
       <c r="C208" s="65"/>
       <c r="D208" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E208" s="60"/>
       <c r="F208" s="58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G208" s="58"/>
       <c r="H208" s="58"/>
@@ -24142,11 +24221,11 @@
       <c r="B209" s="58"/>
       <c r="C209" s="65"/>
       <c r="D209" s="58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E209" s="60"/>
       <c r="F209" s="58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G209" s="58"/>
       <c r="H209" s="58"/>
@@ -24173,11 +24252,11 @@
       <c r="B210" s="58"/>
       <c r="C210" s="65"/>
       <c r="D210" s="58" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E210" s="60"/>
       <c r="F210" s="58" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G210" s="58"/>
       <c r="H210" s="58"/>
@@ -24204,11 +24283,11 @@
       <c r="B211" s="58"/>
       <c r="C211" s="65"/>
       <c r="D211" s="58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E211" s="60"/>
       <c r="F211" s="58" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G211" s="58"/>
       <c r="H211" s="58"/>
@@ -24235,11 +24314,11 @@
       <c r="B212" s="58"/>
       <c r="C212" s="65"/>
       <c r="D212" s="58" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E212" s="60"/>
       <c r="F212" s="58" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G212" s="58"/>
       <c r="H212" s="58"/>
@@ -24266,11 +24345,11 @@
       <c r="B213" s="58"/>
       <c r="C213" s="65"/>
       <c r="D213" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E213" s="60"/>
       <c r="F213" s="58" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G213" s="58"/>
       <c r="H213" s="58"/>
@@ -24297,11 +24376,11 @@
       <c r="B214" s="58"/>
       <c r="C214" s="65"/>
       <c r="D214" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E214" s="60"/>
       <c r="F214" s="58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G214" s="58"/>
       <c r="H214" s="58"/>
@@ -24328,11 +24407,11 @@
       <c r="B215" s="58"/>
       <c r="C215" s="65"/>
       <c r="D215" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E215" s="60"/>
       <c r="F215" s="58" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G215" s="58"/>
       <c r="H215" s="58"/>
@@ -24359,11 +24438,11 @@
       <c r="B216" s="58"/>
       <c r="C216" s="65"/>
       <c r="D216" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E216" s="60"/>
       <c r="F216" s="58" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G216" s="58"/>
       <c r="H216" s="58"/>
@@ -24390,11 +24469,11 @@
       <c r="B217" s="58"/>
       <c r="C217" s="65"/>
       <c r="D217" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E217" s="60"/>
       <c r="F217" s="58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G217" s="58"/>
       <c r="H217" s="58"/>
@@ -24421,11 +24500,11 @@
       <c r="B218" s="58"/>
       <c r="C218" s="65"/>
       <c r="D218" s="58" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E218" s="60"/>
       <c r="F218" s="58" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G218" s="58"/>
       <c r="H218" s="58"/>
@@ -24452,11 +24531,11 @@
       <c r="B219" s="58"/>
       <c r="C219" s="65"/>
       <c r="D219" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E219" s="60"/>
       <c r="F219" s="58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G219" s="58"/>
       <c r="H219" s="58"/>
@@ -24483,11 +24562,11 @@
       <c r="B220" s="58"/>
       <c r="C220" s="65"/>
       <c r="D220" s="58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E220" s="60"/>
       <c r="F220" s="58" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G220" s="58"/>
       <c r="H220" s="58"/>
@@ -24514,11 +24593,11 @@
       <c r="B221" s="58"/>
       <c r="C221" s="65"/>
       <c r="D221" s="58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E221" s="60"/>
       <c r="F221" s="58" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G221" s="58"/>
       <c r="H221" s="58"/>
@@ -24545,11 +24624,11 @@
       <c r="B222" s="58"/>
       <c r="C222" s="65"/>
       <c r="D222" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E222" s="60"/>
       <c r="F222" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G222" s="58"/>
       <c r="H222" s="58"/>
@@ -24576,11 +24655,11 @@
       <c r="B223" s="58"/>
       <c r="C223" s="65"/>
       <c r="D223" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E223" s="60"/>
       <c r="F223" s="58" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G223" s="58"/>
       <c r="H223" s="58"/>
@@ -24607,11 +24686,11 @@
       <c r="B224" s="58"/>
       <c r="C224" s="65"/>
       <c r="D224" s="58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E224" s="60"/>
       <c r="F224" s="58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G224" s="58"/>
       <c r="H224" s="58"/>
@@ -24638,11 +24717,11 @@
       <c r="B225" s="58"/>
       <c r="C225" s="65"/>
       <c r="D225" s="58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E225" s="60"/>
       <c r="F225" s="58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G225" s="58"/>
       <c r="H225" s="58"/>
@@ -24669,11 +24748,11 @@
       <c r="B226" s="58"/>
       <c r="C226" s="65"/>
       <c r="D226" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E226" s="60"/>
       <c r="F226" s="58" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G226" s="58"/>
       <c r="H226" s="58"/>
@@ -24700,11 +24779,11 @@
       <c r="B227" s="58"/>
       <c r="C227" s="65"/>
       <c r="D227" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E227" s="60"/>
       <c r="F227" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G227" s="58"/>
       <c r="H227" s="58"/>
@@ -24731,11 +24810,11 @@
       <c r="B228" s="58"/>
       <c r="C228" s="65"/>
       <c r="D228" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E228" s="60"/>
       <c r="F228" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G228" s="58"/>
       <c r="H228" s="58"/>
@@ -24762,11 +24841,11 @@
       <c r="B229" s="58"/>
       <c r="C229" s="65"/>
       <c r="D229" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E229" s="60"/>
       <c r="F229" s="58" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G229" s="58"/>
       <c r="H229" s="58"/>
@@ -24793,11 +24872,11 @@
       <c r="B230" s="58"/>
       <c r="C230" s="65"/>
       <c r="D230" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E230" s="60"/>
       <c r="F230" s="58" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G230" s="58"/>
       <c r="H230" s="58"/>
@@ -24824,11 +24903,11 @@
       <c r="B231" s="58"/>
       <c r="C231" s="65"/>
       <c r="D231" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E231" s="60"/>
       <c r="F231" s="58" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G231" s="58"/>
       <c r="H231" s="58"/>
@@ -24855,11 +24934,11 @@
       <c r="B232" s="58"/>
       <c r="C232" s="65"/>
       <c r="D232" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E232" s="60"/>
       <c r="F232" s="58" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G232" s="58"/>
       <c r="H232" s="58"/>
@@ -24886,11 +24965,11 @@
       <c r="B233" s="58"/>
       <c r="C233" s="65"/>
       <c r="D233" s="58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E233" s="60"/>
       <c r="F233" s="58" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G233" s="58"/>
       <c r="H233" s="58"/>
@@ -24917,11 +24996,11 @@
       <c r="B234" s="58"/>
       <c r="C234" s="65"/>
       <c r="D234" s="58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E234" s="60"/>
       <c r="F234" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G234" s="58"/>
       <c r="H234" s="58"/>
@@ -24948,11 +25027,11 @@
       <c r="B235" s="58"/>
       <c r="C235" s="65"/>
       <c r="D235" s="58" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E235" s="60"/>
       <c r="F235" s="58" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G235" s="58"/>
       <c r="H235" s="58"/>
@@ -24979,11 +25058,11 @@
       <c r="B236" s="58"/>
       <c r="C236" s="65"/>
       <c r="D236" s="58" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E236" s="60"/>
       <c r="F236" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G236" s="58"/>
       <c r="H236" s="58"/>
@@ -25010,11 +25089,11 @@
       <c r="B237" s="58"/>
       <c r="C237" s="65"/>
       <c r="D237" s="67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E237" s="60"/>
       <c r="F237" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G237" s="58"/>
       <c r="H237" s="58"/>
@@ -25041,11 +25120,11 @@
       <c r="B238" s="58"/>
       <c r="C238" s="65"/>
       <c r="D238" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E238" s="60"/>
       <c r="F238" s="58" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G238" s="58"/>
       <c r="H238" s="58"/>
@@ -25072,11 +25151,11 @@
       <c r="B239" s="58"/>
       <c r="C239" s="65"/>
       <c r="D239" s="58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E239" s="60"/>
       <c r="F239" s="58" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G239" s="58"/>
       <c r="H239" s="58"/>
@@ -25103,11 +25182,11 @@
       <c r="B240" s="58"/>
       <c r="C240" s="65"/>
       <c r="D240" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E240" s="60"/>
       <c r="F240" s="58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G240" s="58"/>
       <c r="H240" s="58"/>
@@ -25134,11 +25213,11 @@
       <c r="B241" s="58"/>
       <c r="C241" s="65"/>
       <c r="D241" s="58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E241" s="60"/>
       <c r="F241" s="58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G241" s="58"/>
       <c r="H241" s="58"/>
@@ -25165,11 +25244,11 @@
       <c r="B242" s="58"/>
       <c r="C242" s="65"/>
       <c r="D242" s="58" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E242" s="60"/>
       <c r="F242" s="58" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G242" s="58"/>
       <c r="H242" s="58"/>
@@ -25196,11 +25275,11 @@
       <c r="B243" s="58"/>
       <c r="C243" s="65"/>
       <c r="D243" s="58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E243" s="60"/>
       <c r="F243" s="58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G243" s="58"/>
       <c r="H243" s="58"/>
@@ -25229,7 +25308,7 @@
       <c r="D244" s="68"/>
       <c r="E244" s="60"/>
       <c r="F244" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G244" s="58"/>
       <c r="H244" s="58"/>
@@ -25258,7 +25337,7 @@
       <c r="D245" s="68"/>
       <c r="E245" s="60"/>
       <c r="F245" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G245" s="58"/>
       <c r="H245" s="58"/>
@@ -25287,7 +25366,7 @@
       <c r="D246" s="68"/>
       <c r="E246" s="60"/>
       <c r="F246" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G246" s="58"/>
       <c r="H246" s="58"/>
@@ -25316,7 +25395,7 @@
       <c r="D247" s="68"/>
       <c r="E247" s="60"/>
       <c r="F247" s="58" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G247" s="58"/>
       <c r="H247" s="58"/>
@@ -25345,7 +25424,7 @@
       <c r="D248" s="68"/>
       <c r="E248" s="60"/>
       <c r="F248" s="58" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G248" s="58"/>
       <c r="H248" s="58"/>
@@ -25374,7 +25453,7 @@
       <c r="D249" s="68"/>
       <c r="E249" s="60"/>
       <c r="F249" s="58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G249" s="58"/>
       <c r="H249" s="58"/>
@@ -25403,7 +25482,7 @@
       <c r="D250" s="68"/>
       <c r="E250" s="60"/>
       <c r="F250" s="58" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G250" s="58"/>
       <c r="H250" s="58"/>
@@ -25432,7 +25511,7 @@
       <c r="D251" s="68"/>
       <c r="E251" s="60"/>
       <c r="F251" s="58" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G251" s="58"/>
       <c r="H251" s="58"/>
@@ -25461,7 +25540,7 @@
       <c r="D252" s="68"/>
       <c r="E252" s="60"/>
       <c r="F252" s="58" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G252" s="58"/>
       <c r="H252" s="58"/>
@@ -25490,7 +25569,7 @@
       <c r="D253" s="68"/>
       <c r="E253" s="60"/>
       <c r="F253" s="58" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G253" s="58"/>
       <c r="H253" s="58"/>
@@ -25519,7 +25598,7 @@
       <c r="D254" s="68"/>
       <c r="E254" s="60"/>
       <c r="F254" s="58" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G254" s="58"/>
       <c r="H254" s="58"/>
@@ -25548,7 +25627,7 @@
       <c r="D255" s="71"/>
       <c r="E255" s="72"/>
       <c r="F255" s="69" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G255" s="69"/>
       <c r="H255" s="69"/>
@@ -25577,7 +25656,7 @@
       <c r="D256" s="71"/>
       <c r="E256" s="72"/>
       <c r="F256" s="69" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G256" s="69"/>
       <c r="H256" s="69"/>
